--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -44,7 +44,31 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:25 AM</t>
+    <t xml:space="preserve">بخاخ ريد الكبير </t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 12:27 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +278,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +290,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +698,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>14</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>19</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>20</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>21</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +808,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -68,7 +68,7 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:27 AM</t>
+    <t>Wednesday, 18 June, 2025 12:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -44,31 +44,25 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t xml:space="preserve">بخاخ ريد الكبير </t>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 18 June, 2025 12:28 AM</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 12:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -730,71 +724,38 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="A8" s="7">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c t="s" r="C8" s="8">
+      <c r="P8" s="13">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" customHeight="1">
+      <c t="s" r="A9" s="14">
         <v>17</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c t="s" r="H8" s="9">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c t="s" r="G9" s="15">
         <v>18</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c t="s" r="L8" s="10">
-        <v>13</v>
-      </c>
-      <c r="M8" s="10"/>
-      <c t="s" r="N8" s="8">
-        <v>14</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c t="s" r="P8" s="11">
-        <v>15</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c t="s" r="K9" s="17">
         <v>19</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>20</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>21</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="17">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -808,15 +769,10 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:Q9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -62,7 +77,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:31 AM</t>
+    <t>Wednesday, 18 June, 2025 9:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +739,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>198</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>267.30000000000001</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>24</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +817,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -77,7 +77,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:31 AM</t>
+    <t>Wednesday, 18 June, 2025 9:32 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -77,7 +77,19 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:32 AM</t>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 9:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -772,38 +784,71 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>267.30000000000001</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>23</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>25</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>22</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>24</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>333.30000000000001</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>27</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>28</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -822,10 +867,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:35 AM</t>
+    <t>Wednesday, 18 June, 2025 9:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>COLA - CHOND 30 TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>82.5000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -65,9 +80,6 @@
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -80,16 +92,13 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
     <t>66.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:50 AM</t>
+    <t>Wednesday, 18 June, 2025 9:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -796,7 +805,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -806,49 +815,82 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>333.30000000000001</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>26</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>415.80000000000001</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +914,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -98,7 +98,7 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:55 AM</t>
+    <t>Wednesday, 18 June, 2025 9:56 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>COLA - CHOND 30 TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>165.00</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>69.3000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -98,7 +110,19 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:56 AM</t>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,7 +829,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -815,14 +839,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -838,7 +862,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -855,42 +879,108 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>415.80000000000001</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
-        <v>29</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>21</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>527.66999999999996</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +1009,20 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -122,7 +122,7 @@
     <t>83.1600</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:03 AM</t>
+    <t>Wednesday, 18 June, 2025 10:06 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -122,7 +122,7 @@
     <t>83.1600</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:06 AM</t>
+    <t>Wednesday, 18 June, 2025 10:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -65,43 +65,43 @@
     <t>COLA - CHOND 30 TABS</t>
   </si>
   <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>41.2500</t>
+  </si>
+  <si>
+    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>82.5000</t>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>0:2</t>
-  </si>
-  <si>
-    <t>CONCOR AMLO 5/5 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>69.3000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t>66.00</t>
@@ -796,7 +796,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -806,14 +806,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -822,14 +822,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -839,11 +839,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -855,14 +855,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -872,14 +872,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -888,14 +888,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -912,7 +912,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -945,12 +945,12 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="P13" s="13">
-        <v>527.66999999999996</v>
+        <v>486.42000000000002</v>
       </c>
       <c r="Q13" s="13"/>
     </row>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -122,7 +122,19 @@
     <t>83.1600</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:07 AM</t>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 10:12 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -949,38 +961,71 @@
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>486.42000000000002</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>509.42000000000002</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>42</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>43</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +1064,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -134,7 +134,16 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:12 AM</t>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -994,38 +1003,71 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>509.42000000000002</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>41</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>30</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>42</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>43</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>570.79999999999995</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1069,10 +1111,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>COLA - CHOND 30 TABS</t>
   </si>
   <si>
@@ -74,15 +86,36 @@
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -95,9 +128,6 @@
     <t>198.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -143,7 +173,19 @@
     <t>61.3800</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:16 AM</t>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8657:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 10:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -817,7 +859,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -827,14 +869,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -843,14 +885,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -883,7 +925,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -893,14 +935,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -909,14 +951,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -926,14 +968,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -942,14 +984,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -959,14 +1001,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -975,14 +1017,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -992,14 +1034,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1008,14 +1050,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1025,49 +1067,181 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-      <c t="s" r="Q14" s="12">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>40</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>52</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>570.79999999999995</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>44</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>45</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>46</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>54</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>55</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>56</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>716.79999999999995</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>59</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>60</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1290,30 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -185,7 +185,16 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:31 AM</t>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 10:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1210,38 +1219,71 @@
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>716.79999999999995</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>58</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>18</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>59</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>802.79999999999995</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>61</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>62</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>63</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1310,10 +1352,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>41.2500</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>CONCOR AMLO 5/5 MG 30 TABS</t>
   </si>
   <si>
@@ -131,15 +143,30 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
     <t>66.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -161,9 +188,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -194,7 +218,7 @@
     <t>86.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:32 AM</t>
+    <t>Wednesday, 18 June, 2025 10:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -934,7 +958,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -944,14 +968,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -960,14 +984,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -984,7 +1008,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1050,7 +1074,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1083,7 +1107,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1099,7 +1123,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1109,14 +1133,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1125,14 +1149,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,11 +1166,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1158,14 +1182,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1175,11 +1199,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1191,14 +1215,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1208,14 +1232,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1224,14 +1248,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1241,49 +1265,148 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>802.79999999999995</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>25</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>60</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>62</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>63</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>64</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>951.79999999999995</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>69</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>70</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>71</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1357,10 +1480,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -218,7 +218,7 @@
     <t>86.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:34 AM</t>
+    <t>Wednesday, 18 June, 2025 10:35 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
   </si>
   <si>
@@ -179,6 +191,12 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -218,7 +236,16 @@
     <t>86.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:35 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -909,7 +936,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -925,7 +952,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -935,14 +962,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -951,14 +978,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -975,7 +1002,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -991,7 +1018,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1001,14 +1028,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1017,14 +1044,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1041,7 +1068,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1074,7 +1101,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1107,7 +1134,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1123,7 +1150,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1133,14 +1160,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1149,14 +1176,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1166,14 +1193,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1182,14 +1209,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1199,14 +1226,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1215,14 +1242,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1239,7 +1266,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,10 +1296,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1281,14 +1308,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1298,7 +1325,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1335,10 +1362,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1347,14 +1374,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1364,49 +1391,148 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>68</v>
       </c>
-      <c t="s" r="Q22" s="12">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>69</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>951.79999999999995</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>69</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>22</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>44</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>76</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>70</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>71</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1022.5</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>78</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>79</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>80</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1495,10 +1621,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -245,7 +245,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:49 AM</t>
+    <t>Wednesday, 18 June, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
@@ -152,6 +161,15 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -206,6 +224,12 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -242,10 +266,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 18 June, 2025 10:59 AM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 11:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -919,7 +943,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -929,14 +953,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -969,7 +993,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -985,7 +1009,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -995,14 +1019,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1011,14 +1035,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1035,7 +1059,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1051,7 +1075,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1068,7 +1092,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1084,7 +1108,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1094,14 +1118,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1110,14 +1134,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1127,14 +1151,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1143,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1160,14 +1184,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1176,14 +1200,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1200,7 +1224,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1216,7 +1240,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1233,7 +1257,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1249,7 +1273,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1266,7 +1290,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1282,7 +1306,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1292,14 +1316,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1308,14 +1332,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1325,7 +1349,7 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
@@ -1362,10 +1386,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1374,14 +1398,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1391,7 +1415,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1428,10 +1452,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1440,14 +1464,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1457,14 +1481,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1473,66 +1497,165 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>77</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>78</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>80</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>26</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>81</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1022.5</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>83</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>47</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>84</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>78</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>79</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
-        <v>80</v>
-      </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1122.3800000000001</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>86</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>87</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>88</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1636,10 +1759,25 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 11:04 AM</t>
+    <t>Wednesday, 18 June, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -179,6 +179,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -269,7 +278,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 11:07 AM</t>
+    <t>Wednesday, 18 June, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1306,7 +1315,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1323,7 +1332,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1339,7 +1348,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1356,7 +1365,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1372,7 +1381,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,14 +1391,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,14 +1407,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,14 +1424,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,14 +1440,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1448,14 +1457,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1471,7 +1480,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,14 +1490,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1497,14 +1506,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1514,7 +1523,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1537,7 +1546,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1547,14 +1556,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1563,14 +1572,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1587,7 +1596,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1603,59 +1612,92 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>86</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>47</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>87</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>81</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1122.3800000000001</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>86</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>87</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>88</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1133.3800000000001</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>89</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>90</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>91</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1774,10 +1816,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -278,7 +278,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 11:08 AM</t>
+    <t>Wednesday, 18 June, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:23</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -248,6 +260,12 @@
     <t>61.3800</t>
   </si>
   <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -278,7 +296,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 11:23 AM</t>
+    <t>Wednesday, 18 June, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1282,7 +1300,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1292,14 +1310,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1308,7 +1326,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1325,14 +1343,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1358,14 +1376,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1374,14 +1392,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1391,14 +1409,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1407,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1431,7 +1449,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1447,7 +1465,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1457,14 +1475,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1473,14 +1491,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1506,14 +1524,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1523,14 +1541,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1539,14 +1557,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1556,11 +1574,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1596,7 +1614,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1612,7 +1630,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1622,14 +1640,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1638,66 +1656,132 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>26</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>90</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>47</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>93</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>87</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1133.3800000000001</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
-        <v>89</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
-        <v>90</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
-        <v>91</v>
-      </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1166.6800000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>96</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>97</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1821,10 +1905,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -296,7 +305,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 11:55 AM</t>
+    <t>Wednesday, 18 June, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,7 +1606,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1614,7 +1623,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1630,7 +1639,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1640,11 +1649,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1713,7 +1722,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1729,59 +1738,92 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>47</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>96</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>90</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1166.6800000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>95</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
-        <v>96</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
-        <v>97</v>
-      </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1246.6800000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>98</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>99</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>100</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1915,10 +1957,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -74,15 +74,24 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
     <t>0:5</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>19.2000</t>
   </si>
   <si>
@@ -161,6 +170,15 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -200,6 +218,15 @@
     <t>11.0000</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -296,16 +323,46 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 11:58 AM</t>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1055,14 +1112,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1071,14 +1128,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1095,7 +1152,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1111,7 +1168,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1128,7 +1185,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1144,7 +1201,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1161,7 +1218,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1177,7 +1234,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1187,14 +1244,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1203,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1220,14 +1277,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1236,14 +1293,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1310,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1293,7 +1350,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1309,7 +1366,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1319,14 +1376,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1335,7 +1392,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1352,14 +1409,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1368,14 +1425,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1392,7 +1449,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1408,7 +1465,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1425,7 +1482,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1441,7 +1498,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1458,7 +1515,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1474,7 +1531,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1484,14 +1541,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1500,14 +1557,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,14 +1574,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1540,7 +1597,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,14 +1607,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1573,7 +1630,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1640,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1656,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,14 +1673,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,14 +1689,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1649,14 +1706,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,14 +1722,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,11 +1739,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1698,14 +1755,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1722,7 +1779,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1738,7 +1795,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1755,7 +1812,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1771,59 +1828,257 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>97</v>
       </c>
-      <c t="s" r="Q32" s="12">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>98</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>99</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>101</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>29</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>102</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>104</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>105</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>106</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>107</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>109</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>50</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>106</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>99</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1246.6800000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>98</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>99</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>100</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>50</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>106</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>112</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>114</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>50</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>106</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1338.0999999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>117</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>118</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>119</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1962,10 +2217,40 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:03 PM</t>
+    <t>Wednesday, 18 June, 2025 12:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:04 PM</t>
+    <t>Wednesday, 18 June, 2025 12:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:07 PM</t>
+    <t>Wednesday, 18 June, 2025 12:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:08 PM</t>
+    <t>Wednesday, 18 June, 2025 12:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -215,7 +215,7 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>11.0000</t>
+    <t>22.0000</t>
   </si>
   <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
@@ -362,7 +362,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:13 PM</t>
+    <t>Wednesday, 18 June, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1498,7 +1498,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1515,7 +1515,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2048,7 +2048,7 @@
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="P39" s="13">
-        <v>1338.0999999999999</v>
+        <v>1349.0999999999999</v>
       </c>
       <c r="Q39" s="13"/>
     </row>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:18 PM</t>
+    <t>Wednesday, 18 June, 2025 12:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -146,15 +146,24 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -341,7 +350,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -362,7 +371,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:21 PM</t>
+    <t>Wednesday, 18 June, 2025 12:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1317,7 +1326,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1343,14 +1352,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1359,14 +1368,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1383,7 +1392,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1399,7 +1408,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1416,7 +1425,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1432,7 +1441,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1442,11 +1451,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1458,14 +1467,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1482,7 +1491,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1498,7 +1507,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1531,7 +1540,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1548,7 +1557,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1564,7 +1573,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1581,7 +1590,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1597,7 +1606,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1614,7 +1623,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1630,7 +1639,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,14 +1649,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,14 +1682,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1689,14 +1698,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,14 +1715,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1755,7 +1764,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1795,7 +1804,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1812,7 +1821,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1828,7 +1837,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1838,11 +1847,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1911,7 +1920,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1927,21 +1936,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>29</v>
@@ -1953,31 +1962,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1986,31 +1995,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2026,13 +2035,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2047,38 +2056,71 @@
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1349.0999999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>117</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>53</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>109</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>118</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1362.98</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2247,10 +2289,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -98,9 +110,6 @@
     <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>73.00</t>
   </si>
   <si>
@@ -161,9 +170,6 @@
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -218,6 +224,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -371,7 +386,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:23 PM</t>
+    <t>Wednesday, 18 June, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1121,14 +1136,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1137,14 +1152,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1154,14 +1169,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1177,7 +1192,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1194,7 +1209,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1210,7 +1225,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1227,7 +1242,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1243,7 +1258,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1260,7 +1275,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1276,7 +1291,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,14 +1301,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1302,14 +1317,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1319,14 +1334,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1335,14 +1350,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,14 +1367,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1375,7 +1390,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1385,14 +1400,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1401,14 +1416,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,14 +1433,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1434,14 +1449,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1451,14 +1466,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1467,14 +1482,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,11 +1499,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1500,14 +1515,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,14 +1532,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,14 +1548,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1565,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,14 +1581,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1598,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,14 +1614,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,14 +1631,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,14 +1647,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,11 +1664,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1665,14 +1680,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,14 +1697,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1698,14 +1713,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,11 +1730,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1731,14 +1746,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,14 +1763,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1771,7 +1786,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1781,7 +1796,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1804,7 +1819,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1814,14 +1829,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1837,7 +1852,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1847,11 +1862,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1863,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1880,14 +1895,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1903,7 +1918,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1913,14 +1928,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,14 +1944,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1946,14 +1961,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,31 +1977,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1995,31 +2010,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,20 +2043,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2052,7 +2067,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2068,59 +2083,125 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>119</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1362.98</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>55</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>114</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>121</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c t="s" r="Q40" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>122</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>55</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>114</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>123</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1474.98</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>125</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>126</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>127</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2375,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 12:27 PM</t>
+    <t>Wednesday, 18 June, 2025 1:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -386,7 +386,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 1:17 PM</t>
+    <t>Wednesday, 18 June, 2025 1:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1621,7 +1621,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -386,7 +386,19 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 1:18 PM</t>
+    <t>ماسك وجه</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 1:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2170,38 +2182,71 @@
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1474.98</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>125</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>126</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>114</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>127</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1504.98</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>129</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>130</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>131</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2385,10 +2430,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 1:29 PM</t>
+    <t>Wednesday, 18 June, 2025 2:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -281,6 +281,18 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -398,7 +410,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 2:05 PM</t>
+    <t>Wednesday, 18 June, 2025 2:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,7 +1810,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1808,11 +1820,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,14 +1853,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,14 +1886,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1890,7 +1902,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1940,14 +1952,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1956,14 +1968,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1973,11 +1985,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2006,14 +2018,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2029,7 +2041,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2055,28 +2067,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2088,31 +2100,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2121,7 +2133,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2134,18 +2146,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2154,7 +2166,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2167,15 +2179,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>28</v>
@@ -2187,20 +2199,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2215,38 +2227,71 @@
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1504.98</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>129</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>130</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>118</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>131</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1529.73</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>133</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>134</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>135</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2435,10 +2480,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 2:10 PM</t>
+    <t>Wednesday, 18 June, 2025 2:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -410,7 +410,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 2:14 PM</t>
+    <t>Wednesday, 18 June, 2025 2:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -107,6 +116,18 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
   </si>
   <si>
@@ -176,9 +197,6 @@
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -410,7 +428,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 2:16 PM</t>
+    <t>Wednesday, 18 June, 2025 2:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1150,7 +1168,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1160,14 +1178,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1193,14 +1211,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1216,7 +1234,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1226,14 +1244,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1249,7 +1267,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1259,14 +1277,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1275,14 +1293,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1292,14 +1310,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1308,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1325,11 +1343,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1341,14 +1359,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1365,7 +1383,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1381,7 +1399,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1391,11 +1409,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1407,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1424,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1440,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1457,14 +1475,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1473,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1490,14 +1508,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1513,7 +1531,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1530,7 +1548,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1546,7 +1564,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1556,14 +1574,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1572,7 +1590,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1589,14 +1607,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1629,7 +1647,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1662,7 +1680,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1678,7 +1696,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1695,7 +1713,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1711,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1728,7 +1746,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1744,7 +1762,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1777,7 +1795,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1820,11 +1838,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1836,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1853,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,10 +1908,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1919,11 +1937,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1968,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1985,7 +2003,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2008,7 +2026,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2058,7 +2076,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2074,7 +2092,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2100,31 +2118,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2133,31 +2151,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2166,31 +2184,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2199,31 +2217,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2239,59 +2257,125 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>132</v>
       </c>
-      <c t="s" r="Q43" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1529.73</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>36</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>124</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>133</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>134</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c t="s" r="Q44" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>135</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>136</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>124</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1618.47</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>139</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>140</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>141</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2485,10 +2569,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 2:17 PM</t>
+    <t>Wednesday, 18 June, 2025 2:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -428,7 +437,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 2:34 PM</t>
+    <t>Wednesday, 18 June, 2025 2:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1696,7 +1705,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1713,7 +1722,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1762,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1779,7 +1788,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1795,7 +1804,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1812,7 +1821,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1828,7 +1837,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1845,7 +1854,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1861,7 +1870,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,11 +1946,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,14 +1979,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1993,7 +2002,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,14 +2012,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,7 +2028,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2059,7 +2068,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2076,7 +2085,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2092,7 +2101,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,11 +2111,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2175,7 +2184,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2191,21 +2200,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>31</v>
@@ -2217,31 +2226,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,7 +2259,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2263,18 +2272,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2296,7 +2305,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2323,59 +2332,92 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1618.47</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>138</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>139</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>127</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>140</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1633.3199999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>142</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>143</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>144</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2579,10 +2621,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -437,7 +437,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 2:55 PM</t>
+    <t>Wednesday, 18 June, 2025 2:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -437,7 +437,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 2:58 PM</t>
+    <t>Wednesday, 18 June, 2025 5:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>198.0000</t>
   </si>
   <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -260,6 +269,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -347,9 +368,6 @@
     <t>80.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -437,7 +455,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 5:01 PM</t>
+    <t>Wednesday, 18 June, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1573,7 +1591,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1590,7 +1608,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1606,7 +1624,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1623,7 +1641,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1639,7 +1657,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1649,11 +1667,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1665,14 +1683,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1689,7 +1707,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1705,7 +1723,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1722,7 +1740,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1738,7 +1756,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1755,7 +1773,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1771,7 +1789,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1804,7 +1822,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,11 +1865,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -1863,7 +1881,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1880,11 +1898,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1920,7 +1938,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1936,7 +1954,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1946,11 +1964,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1962,14 +1980,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2045,11 +2063,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,11 +2096,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>31</v>
@@ -2094,14 +2112,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2111,11 +2129,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2127,14 +2145,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2184,7 +2202,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2200,7 +2218,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,31 +2244,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,31 +2277,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>106</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2292,28 +2310,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2325,7 +2343,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2338,18 +2356,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2365,59 +2383,125 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1633.3199999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>141</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>36</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>133</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>142</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c t="s" r="Q47" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>144</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>145</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>133</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>146</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1755.3199999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>148</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>149</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>150</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2626,10 +2710,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -455,7 +467,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 5:02 PM</t>
+    <t>Wednesday, 18 June, 2025 5:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,7 +1867,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1865,11 +1877,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>31</v>
@@ -1881,14 +1893,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1898,14 +1910,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1914,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1943,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +1959,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,14 +1976,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2004,7 +2016,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2037,7 +2049,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2053,7 +2065,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,11 +2075,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,14 +2108,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,7 +2157,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,11 +2240,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2284,7 +2296,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,14 +2306,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2310,28 +2322,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>31</v>
@@ -2343,31 +2355,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2376,7 +2388,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2389,18 +2401,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2409,7 +2421,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2422,15 +2434,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>31</v>
@@ -2442,20 +2454,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2470,38 +2482,71 @@
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1755.3199999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>148</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>149</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>137</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>150</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>1779.3199999999999</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>152</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>153</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>154</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2720,10 +2765,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -89,6 +89,9 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -167,7 +170,7 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>33:0</t>
   </si>
   <si>
     <t>33.00</t>
@@ -215,6 +218,9 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -467,7 +473,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 5:24 PM</t>
+    <t>Wednesday, 18 June, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,7 +1213,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1217,11 +1223,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1233,14 +1239,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1254,10 +1260,10 @@
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1266,14 +1272,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1287,7 +1293,7 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1299,14 +1305,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1316,14 +1322,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1332,14 +1338,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1349,14 +1355,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1365,7 +1371,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1382,11 +1388,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1398,7 +1404,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1415,14 +1421,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1431,14 +1437,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1448,11 +1454,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1464,14 +1470,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,14 +1487,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1497,14 +1503,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1514,11 +1520,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1530,14 +1536,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1547,14 +1553,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1563,14 +1569,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1580,14 +1586,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1596,7 +1602,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1613,11 +1619,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1629,14 +1635,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1646,14 +1652,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1662,7 +1668,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1679,11 +1685,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1695,14 +1701,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,11 +1718,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1728,7 +1734,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1745,14 +1751,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1761,14 +1767,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1778,11 +1784,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1811,14 +1817,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1827,14 +1833,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,14 +1850,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1866,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1883,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1893,7 +1899,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1910,14 +1916,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1943,11 +1949,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1959,14 +1965,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1976,14 +1982,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2009,11 +2015,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2025,14 +2031,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,11 +2048,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2058,14 +2064,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,11 +2081,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2091,14 +2097,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,11 +2114,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2124,14 +2130,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2147,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2163,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,11 +2180,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2190,14 +2196,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2207,14 +2213,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2223,7 +2229,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2240,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,11 +2279,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2289,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,31 +2361,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,31 +2394,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2421,31 +2427,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2454,31 +2460,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2487,31 +2493,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2522,7 +2528,7 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c t="s" r="A51" s="14">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -2530,13 +2536,13 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c t="s" r="G51" s="15">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
       <c t="s" r="K51" s="17">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
@@ -266,6 +275,15 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -473,7 +491,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 5:52 PM</t>
+    <t>Wednesday, 18 June, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1553,11 +1571,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>32</v>
@@ -1569,14 +1587,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1586,14 +1604,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1609,7 +1627,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1626,7 +1644,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1642,7 +1660,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1652,14 +1670,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1668,14 +1686,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1692,7 +1710,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1708,7 +1726,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1718,11 +1736,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1758,7 +1776,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1774,7 +1792,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1791,7 +1809,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1807,7 +1825,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1824,7 +1842,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1840,7 +1858,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1850,11 +1868,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -1866,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,11 +1901,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -1899,14 +1917,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1916,11 +1934,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -1932,14 +1950,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1956,7 +1974,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1972,7 +1990,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2038,7 +2056,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2048,14 +2066,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2064,14 +2082,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2081,11 +2099,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2097,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2132,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2151,10 +2169,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,11 +2198,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2196,14 +2214,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2213,11 +2231,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>32</v>
@@ -2229,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2246,11 +2264,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2262,14 +2280,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2279,14 +2297,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2319,7 +2337,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2335,7 +2353,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,14 +2363,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2361,31 +2379,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,31 +2412,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>119</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,28 +2445,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2460,7 +2478,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2473,18 +2491,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2500,59 +2518,125 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>153</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>1779.3199999999999</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>37</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>145</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>154</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c t="s" r="Q50" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>156</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>157</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>145</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>158</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>1862.3199999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>160</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>161</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>162</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2776,10 +2860,20 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
   </si>
   <si>
@@ -470,12 +482,27 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
@@ -488,10 +515,16 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 18 June, 2025 6:12 PM</t>
+    <t>معجون اسنان سيجنال 120 مل عرض</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Wednesday, 18 June, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1363,7 +1396,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1373,11 +1406,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>32</v>
@@ -1389,14 +1422,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1406,14 +1439,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1422,14 +1455,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1439,14 +1472,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1455,14 +1488,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1472,14 +1505,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1488,14 +1521,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1512,7 +1545,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1545,7 +1578,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1561,7 +1594,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1571,14 +1604,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1587,7 +1620,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1604,11 +1637,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>32</v>
@@ -1620,14 +1653,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1637,14 +1670,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1653,14 +1686,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1670,14 +1703,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1686,14 +1719,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1710,7 +1743,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1726,7 +1759,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1736,14 +1769,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1752,14 +1785,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1792,7 +1825,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1802,14 +1835,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1818,14 +1851,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1835,14 +1868,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1851,14 +1884,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1868,14 +1901,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1884,14 +1917,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1901,11 +1934,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -1917,14 +1950,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1990,7 +2023,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,11 +2033,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2016,14 +2049,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2033,14 +2066,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2082,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2066,14 +2099,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2082,14 +2115,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,14 +2132,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2115,14 +2148,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2139,7 +2172,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,7 +2205,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2188,7 +2221,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2198,11 +2231,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2214,14 +2247,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2231,14 +2264,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,14 +2280,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,14 +2297,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,7 +2313,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2297,14 +2330,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2313,14 +2346,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2330,14 +2363,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2346,14 +2379,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2363,11 +2396,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2379,14 +2412,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2396,14 +2429,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2419,7 +2452,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2429,14 +2462,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2445,28 +2478,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2478,31 +2511,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>125</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,31 +2544,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>32</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2544,28 +2577,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -2577,66 +2610,198 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>161</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>162</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>149</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>159</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1862.3199999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
-        <v>161</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
-        <v>162</v>
-      </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c t="s" r="Q52" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>163</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>41</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>149</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>159</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>166</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>149</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>167</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>168</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>99</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>149</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>169</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2018.3199999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>171</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>172</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>173</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2870,10 +3035,30 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -191,6 +191,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -278,6 +287,9 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>HIPAMAX 20 CAP</t>
+  </si>
+  <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -296,6 +308,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -305,6 +326,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -524,7 +554,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 6:18 PM</t>
+    <t>Wednesday, 18 June, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1624,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1604,14 +1634,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1620,14 +1650,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1644,7 +1674,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1670,11 +1700,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>32</v>
@@ -1686,14 +1716,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1703,14 +1733,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1726,7 +1756,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1743,7 +1773,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1759,7 +1789,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1769,14 +1799,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1785,14 +1815,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1809,7 +1839,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1825,7 +1855,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1835,11 +1865,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1851,14 +1881,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1875,7 +1905,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1891,7 +1921,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1908,7 +1938,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1924,7 +1954,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1934,11 +1964,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -1950,14 +1980,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1967,14 +1997,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1983,14 +2013,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2000,11 +2030,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>32</v>
@@ -2016,14 +2046,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2033,14 +2063,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2049,14 +2079,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2066,11 +2096,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2082,14 +2112,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2099,14 +2129,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2115,14 +2145,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2132,11 +2162,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2148,14 +2178,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2165,14 +2195,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2181,14 +2211,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2198,14 +2228,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2214,14 +2244,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2231,11 +2261,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2247,14 +2277,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2264,14 +2294,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2280,14 +2310,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2297,14 +2327,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2313,14 +2343,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2330,14 +2360,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2346,14 +2376,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2367,10 +2397,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2379,14 +2409,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2396,7 +2426,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2419,7 +2449,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2429,14 +2459,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2445,14 +2475,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2462,14 +2492,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2478,7 +2508,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2495,11 +2525,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2511,31 +2541,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2544,31 +2574,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2577,31 +2607,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2610,31 +2640,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2643,31 +2673,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2676,7 +2706,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2689,18 +2719,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2709,28 +2739,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>32</v>
@@ -2742,20 +2772,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2766,42 +2796,174 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2018.3199999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>171</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>172</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>159</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>169</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>173</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>41</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>159</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>169</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>176</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>159</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>177</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>109</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>159</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>179</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2321.6799999999998</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>181</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>182</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>183</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3055,10 +3217,30 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -98,6 +98,21 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>142.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -107,9 +122,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -119,6 +131,12 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CERELAC رز و حديد</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -134,9 +152,6 @@
     <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -488,9 +503,6 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -500,7 +512,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -554,7 +569,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 6:22 PM</t>
+    <t>Wednesday, 18 June, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1337,14 +1352,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1353,14 +1368,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1370,14 +1385,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1386,14 +1401,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1403,14 +1418,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1426,24 +1441,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1452,14 +1467,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1469,14 +1484,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1485,14 +1500,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1502,14 +1517,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1518,14 +1533,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1535,14 +1550,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1551,14 +1566,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1568,11 +1583,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1584,14 +1599,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1601,14 +1616,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1617,14 +1632,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1634,14 +1649,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1650,14 +1665,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1667,14 +1682,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1683,14 +1698,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1700,14 +1715,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1716,14 +1731,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1733,14 +1748,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1756,7 +1771,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1773,7 +1788,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1789,7 +1804,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1799,14 +1814,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1865,11 +1880,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1898,14 +1913,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1914,7 +1929,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1931,14 +1946,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1947,14 +1962,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1964,14 +1979,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1980,14 +1995,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2030,14 +2045,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2063,11 +2078,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2079,7 +2094,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2096,14 +2111,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2162,14 +2177,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2327,11 +2342,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2393,11 +2408,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2482,7 +2497,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2492,7 +2507,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2515,7 +2530,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2558,7 +2573,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2581,7 +2596,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2591,14 +2606,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2614,7 +2629,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2673,31 +2688,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2706,31 +2721,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>139</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2739,31 +2754,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,31 +2787,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2805,31 +2820,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2838,31 +2853,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2871,31 +2886,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2911,59 +2926,125 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>180</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2321.6799999999998</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>181</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>41</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>182</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>183</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>114</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>41</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>184</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2509.6799999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>186</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>187</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>188</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3237,10 +3318,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -404,49 +404,52 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>46.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>23.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
   </si>
   <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
@@ -2398,7 +2401,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,14 +2411,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,14 +2427,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2544,7 +2547,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>33</v>
@@ -2556,7 +2559,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2589,7 +2592,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2606,7 +2609,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2622,7 +2625,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2639,11 +2642,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2655,14 +2658,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2676,7 +2679,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2688,14 +2691,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,11 +2708,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>35</v>
@@ -2721,7 +2724,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2738,11 +2741,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>33</v>
@@ -2754,14 +2757,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,11 +2774,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>33</v>
@@ -2787,7 +2790,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2804,14 +2807,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,7 +2823,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2837,11 +2840,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>33</v>
@@ -2853,14 +2856,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2870,11 +2873,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>35</v>
@@ -2886,14 +2889,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,11 +2906,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>35</v>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2936,11 +2939,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>33</v>
@@ -2952,14 +2955,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,11 +2972,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>33</v>
@@ -2985,7 +2988,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3002,11 +3005,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>33</v>
@@ -3014,13 +3017,13 @@
     </row>
     <row r="62" ht="25.5" customHeight="1">
       <c r="P62" s="13">
-        <v>2509.6799999999998</v>
+        <v>2532.6799999999998</v>
       </c>
       <c r="Q62" s="13"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c t="s" r="A63" s="14">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -3028,13 +3031,13 @@
       <c r="E63" s="14"/>
       <c r="F63" s="14"/>
       <c t="s" r="G63" s="15">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="16"/>
       <c t="s" r="K63" s="17">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L63" s="17"/>
       <c r="M63" s="17"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -572,7 +572,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 6:37 PM</t>
+    <t>Wednesday, 18 June, 2025 6:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -341,6 +341,24 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>PARAGESIC 500MG 5 SUPP.</t>
   </si>
   <si>
@@ -512,6 +530,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -524,9 +551,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>3.0000</t>
   </si>
   <si>
@@ -572,7 +596,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 6:38 PM</t>
+    <t>Wednesday, 18 June, 2025 7:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2203,7 +2227,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2220,7 +2244,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2236,7 +2260,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2246,14 +2270,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2262,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2279,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2295,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2312,11 +2336,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>33</v>
@@ -2328,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2352,7 +2376,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2368,7 +2392,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2401,7 +2425,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2411,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2427,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2444,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2460,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2477,14 +2501,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2493,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2510,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,7 +2574,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2566,7 +2590,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2576,7 +2600,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2599,7 +2623,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2609,11 +2633,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>33</v>
@@ -2625,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2642,11 +2666,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2658,14 +2682,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2675,14 +2699,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2691,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2715,7 +2739,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2731,7 +2755,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2741,14 +2765,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2757,31 +2781,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2790,31 +2814,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2823,14 +2847,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2863,7 +2887,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2873,11 +2897,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>35</v>
@@ -2889,14 +2913,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2906,14 +2930,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2939,7 +2963,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -2976,10 +3000,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2988,14 +3012,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3005,49 +3029,148 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2532.6799999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>187</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>30</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>41</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>183</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c t="s" r="Q62" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>189</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>190</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>41</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>191</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>192</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>120</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>41</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>193</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2606.6799999999998</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>195</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>196</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>197</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3331,10 +3454,25 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 7:07 PM</t>
+    <t>Wednesday, 18 June, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -596,7 +605,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 7:23 PM</t>
+    <t>Wednesday, 18 June, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2194,7 +2203,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2227,7 +2236,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2244,7 +2253,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2260,7 +2269,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2293,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2310,7 +2319,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2326,7 +2335,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,14 +2345,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,14 +2361,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,11 +2378,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>33</v>
@@ -2385,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2425,7 +2434,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2442,7 +2451,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2458,7 +2467,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2475,7 +2484,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2491,7 +2500,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,11 +2510,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>33</v>
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2541,7 +2550,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2557,7 +2566,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,14 +2576,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,11 +2609,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,14 +2642,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2675,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,7 +2691,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2699,14 +2708,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2755,7 +2764,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,11 +2774,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2823,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2838,7 +2847,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2854,21 +2863,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>33</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2904,7 +2913,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>178</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>33</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,14 +2988,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2996,14 +3005,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3029,11 +3038,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>35</v>
@@ -3045,14 +3054,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,14 +3087,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3095,11 +3104,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>33</v>
@@ -3118,7 +3127,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,49 +3137,82 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>33</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2606.6799999999998</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
         <v>195</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>123</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>41</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>196</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>197</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c t="s" r="Q65" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>2846.6799999999998</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>198</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>199</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>200</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3469,10 +3511,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -314,6 +323,9 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -353,9 +365,6 @@
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>51.0000</t>
   </si>
   <si>
@@ -605,7 +614,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 7:24 PM</t>
+    <t>Wednesday, 18 June, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1395,7 +1404,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1404,14 +1413,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1421,14 +1430,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1437,14 +1446,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1454,14 +1463,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1477,24 +1486,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1503,31 +1512,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1536,14 +1545,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1560,7 +1569,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1576,7 +1585,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1593,7 +1602,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1609,7 +1618,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1626,7 +1635,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1642,7 +1651,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1659,7 +1668,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1675,7 +1684,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1692,7 +1701,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1708,7 +1717,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,14 +1727,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1734,14 +1743,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1758,7 +1767,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1774,7 +1783,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1824,7 +1833,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1840,7 +1849,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1859,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1892,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1906,7 +1915,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1923,7 +1932,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1939,7 +1948,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1989,7 +1998,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2005,7 +2014,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,11 +2024,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2031,14 +2040,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2055,7 +2064,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,7 +2080,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2081,14 +2090,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2097,14 +2106,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2114,14 +2123,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2137,7 +2146,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2154,7 +2163,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2170,7 +2179,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2180,14 +2189,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2196,14 +2205,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2213,14 +2222,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2229,14 +2238,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2295,14 +2304,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2321,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2354,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,14 +2370,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2378,14 +2387,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2394,14 +2403,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2411,14 +2420,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2543,14 +2552,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2576,14 +2585,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2618,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2675,14 +2684,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,11 +2717,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2724,14 +2733,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2840,14 +2849,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2865,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,31 +2898,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,31 +2931,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,31 +2964,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>181</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,31 +2997,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3021,31 +3030,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>35</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,31 +3063,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,31 +3096,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3120,31 +3129,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,66 +3162,132 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>195</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>196</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>44</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>197</v>
       </c>
-      <c t="s" r="Q65" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>2846.6799999999998</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>198</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>126</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>44</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>199</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>200</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2943.3400000000001</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>201</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>202</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>203</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3516,10 +3591,20 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -203,6 +203,15 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -245,6 +254,18 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
@@ -314,6 +335,15 @@
     <t>HIPAMAX 20 CAP</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -614,7 +644,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 7:52 PM</t>
+    <t>Wednesday, 18 June, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1750,7 +1780,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1760,14 +1790,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1776,14 +1806,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1816,7 +1846,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1826,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1842,14 +1872,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1866,7 +1896,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1892,11 +1922,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>37</v>
@@ -1908,14 +1938,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1925,14 +1955,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1941,14 +1971,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1958,14 +1988,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1974,14 +2004,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1998,7 +2028,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2014,7 +2044,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2064,7 +2094,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2097,7 +2127,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2113,7 +2143,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2123,14 +2153,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2139,14 +2169,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2156,14 +2186,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2172,14 +2202,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2189,11 +2219,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>37</v>
@@ -2205,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2222,11 +2252,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>37</v>
@@ -2238,14 +2268,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2255,11 +2285,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2271,7 +2301,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2288,11 +2318,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>37</v>
@@ -2304,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2321,11 +2351,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>37</v>
@@ -2337,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2354,11 +2384,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2370,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2387,14 +2417,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2403,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2420,14 +2450,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2436,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2453,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2476,7 +2506,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2486,14 +2516,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2502,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2519,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2535,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2559,7 +2589,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2575,7 +2605,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2585,11 +2615,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>37</v>
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2641,7 +2671,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2658,7 +2688,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2674,7 +2704,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2684,14 +2714,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2717,14 +2747,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2757,7 +2787,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2773,7 +2803,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2783,11 +2813,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2799,14 +2829,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2816,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2832,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2849,14 +2879,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2865,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2882,11 +2912,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2898,14 +2928,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2915,14 +2945,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2931,14 +2961,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2948,14 +2978,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2964,31 +2994,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2997,20 +3027,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3037,24 +3067,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>184</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3070,7 +3100,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3080,11 +3110,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>37</v>
@@ -3096,14 +3126,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3113,11 +3143,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3129,14 +3159,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3146,14 +3176,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3162,7 +3192,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3179,11 +3209,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>37</v>
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3212,14 +3242,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3252,42 +3282,141 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2943.3400000000001</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
-        <v>201</v>
-      </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>202</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>203</v>
       </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>34</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>44</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>199</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>205</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>206</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>44</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>207</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>208</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>136</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>44</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>209</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3044.1799999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>211</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>212</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>213</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3601,10 +3730,25 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -215,13 +215,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>33:0</t>
+    <t>32:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
   </si>
   <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
@@ -272,6 +272,18 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -293,13 +305,10 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
+    <t>52.0000</t>
   </si>
   <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
@@ -329,7 +338,10 @@
     <t>66.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
   </si>
   <si>
     <t>HIPAMAX 20 CAP</t>
@@ -359,12 +371,6 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -527,9 +533,6 @@
     <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
   </si>
   <si>
@@ -548,13 +551,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8657:0</t>
+    <t>8655:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
@@ -566,6 +569,12 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -593,15 +602,9 @@
     <t>14.0000</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.0000</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -644,7 +647,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 7:56 PM</t>
+    <t>Wednesday, 18 June, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1830,7 +1833,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2011,7 +2014,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2021,14 +2024,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2037,14 +2040,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2054,14 +2057,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2070,14 +2073,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2094,7 +2097,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2110,7 +2113,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2127,7 +2130,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2143,7 +2146,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2169,14 +2172,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2193,7 +2196,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2209,7 +2212,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2219,11 +2222,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>37</v>
@@ -2235,7 +2238,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2252,11 +2255,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>37</v>
@@ -2275,7 +2278,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2285,14 +2288,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2301,14 +2304,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2318,11 +2321,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>37</v>
@@ -2341,7 +2344,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2358,7 +2361,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2374,7 +2377,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2384,14 +2387,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2400,7 +2403,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2417,11 +2420,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>37</v>
@@ -2433,14 +2436,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2450,14 +2453,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2483,14 +2486,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2532,14 +2535,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2549,14 +2552,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,14 +2618,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,11 +2651,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>37</v>
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,14 +2684,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,11 +2717,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>37</v>
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2750,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2780,14 +2783,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,14 +2816,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2829,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2846,14 +2849,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,14 +2882,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2895,14 +2898,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,11 +2915,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2928,14 +2931,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,11 +2948,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>37</v>
@@ -2961,14 +2964,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,11 +2981,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2994,14 +2997,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,14 +3014,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3027,14 +3030,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3044,14 +3047,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3060,14 +3063,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,14 +3080,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3093,31 +3096,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3126,31 +3129,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,7 +3162,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3172,18 +3175,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,14 +3195,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3213,7 +3216,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>37</v>
@@ -3225,14 +3228,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3242,11 +3245,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3258,14 +3261,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3275,14 +3278,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,7 +3294,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3308,14 +3311,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3324,14 +3327,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3341,14 +3344,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3357,14 +3360,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3374,49 +3377,148 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>204</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>34</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>44</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>200</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>206</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>207</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>44</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>208</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>209</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>138</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>44</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>210</v>
       </c>
-      <c t="s" r="Q70" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3044.1799999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>211</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c t="s" r="Q73" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3325.1799999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
         <v>212</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
         <v>213</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>214</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3745,10 +3847,25 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -122,9 +134,6 @@
     <t>142.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CARBAMIDE 10% CREAM 30 GM</t>
   </si>
   <si>
@@ -260,12 +269,6 @@
     <t>7:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
@@ -599,7 +602,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -647,7 +650,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 7:58 PM</t>
+    <t>Wednesday, 18 June, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1404,7 +1407,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1470,7 +1473,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1479,14 +1482,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1496,14 +1499,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1512,14 +1515,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1529,14 +1532,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1552,24 +1555,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1578,31 +1581,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1611,14 +1614,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1635,7 +1638,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1651,7 +1654,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1668,7 +1671,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1684,7 +1687,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1701,7 +1704,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1717,7 +1720,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1734,7 +1737,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1750,7 +1753,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1767,7 +1770,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1783,7 +1786,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1816,7 +1819,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1826,14 +1829,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1842,14 +1845,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1866,7 +1869,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1882,7 +1885,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1892,14 +1895,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1908,14 +1911,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1932,7 +1935,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1948,7 +1951,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1958,14 +1961,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1991,14 +1994,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2024,14 +2027,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2040,14 +2043,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2057,14 +2060,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2073,14 +2076,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2090,14 +2093,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2123,14 +2126,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2139,14 +2142,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2156,14 +2159,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2172,14 +2175,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2189,11 +2192,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2205,14 +2208,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2222,14 +2225,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2238,14 +2241,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2255,14 +2258,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2271,14 +2274,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2288,14 +2291,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2311,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2321,14 +2324,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2337,14 +2340,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2354,14 +2357,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2387,14 +2390,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2410,7 +2413,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2420,14 +2423,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2443,7 +2446,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2469,7 +2472,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2486,14 +2489,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2502,14 +2505,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2519,14 +2522,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2535,14 +2538,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,14 +2555,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2568,14 +2571,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2585,11 +2588,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2601,14 +2604,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2618,14 +2621,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2634,14 +2637,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2651,14 +2654,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2667,14 +2670,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2684,14 +2687,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2700,14 +2703,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2717,14 +2720,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2733,14 +2736,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2766,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2816,14 +2819,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2832,14 +2835,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2849,14 +2852,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2865,14 +2868,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2882,14 +2885,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2898,14 +2901,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2915,11 +2918,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2931,14 +2934,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2948,14 +2951,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2964,14 +2967,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2981,14 +2984,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3014,14 +3017,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3037,7 +3040,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3047,14 +3050,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3063,14 +3066,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,11 +3083,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3096,14 +3099,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3113,14 +3116,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>168</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,14 +3132,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,14 +3149,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3162,14 +3165,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3179,14 +3182,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3195,31 +3198,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3228,31 +3231,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3261,31 +3264,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3294,31 +3297,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3334,21 +3337,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>22</v>
@@ -3360,28 +3363,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3393,31 +3396,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3426,31 +3429,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3459,66 +3462,99 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>210</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>139</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>47</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>211</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3325.1799999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>212</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c t="s" r="Q74" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3345.02</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>213</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
         <v>214</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>215</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3862,10 +3898,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMARYL 1MG 30 TAB</t>
   </si>
   <si>
@@ -86,6 +98,18 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>-30.6900</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -305,6 +329,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>FEMAPENT 2.5MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>495.00</t>
+  </si>
+  <si>
+    <t>163.3500</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -458,6 +491,21 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>SODIUM BICARB 1000MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>SPANIELA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -479,9 +527,6 @@
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -527,6 +572,9 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -650,7 +698,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 8:04 PM</t>
+    <t>Wednesday, 18 June, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1324,7 +1372,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1334,14 +1382,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1357,7 +1405,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1367,14 +1415,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1407,7 +1455,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1423,7 +1471,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1433,14 +1481,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1473,7 +1521,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1506,7 +1554,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1522,7 +1570,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1532,14 +1580,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1548,14 +1596,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1565,14 +1613,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1581,31 +1629,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1614,14 +1662,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1631,14 +1679,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1647,31 +1695,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1680,14 +1728,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1697,14 +1745,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1713,14 +1761,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1730,14 +1778,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1746,14 +1794,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1763,14 +1811,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1779,14 +1827,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1796,11 +1844,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1812,14 +1860,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1829,14 +1877,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1845,14 +1893,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1862,14 +1910,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1878,7 +1926,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1895,14 +1943,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,14 +1959,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1928,14 +1976,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1944,14 +1992,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1961,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1977,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,11 +2042,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2010,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2027,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2060,14 +2108,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2076,7 +2124,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2093,14 +2141,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2109,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2126,14 +2174,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2142,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2159,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2175,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2192,11 +2240,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2208,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2225,11 +2273,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2241,14 +2289,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2258,11 +2306,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2274,14 +2322,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,14 +2339,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2307,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2324,14 +2372,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2340,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2405,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2373,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2390,14 +2438,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2406,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2423,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2439,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2456,14 +2504,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2472,7 +2520,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2489,11 +2537,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2505,14 +2553,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,14 +2570,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2555,14 +2603,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2571,14 +2619,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,11 +2636,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2604,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,14 +2669,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,14 +2685,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,14 +2702,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2687,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2703,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2727,7 +2775,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2743,7 +2791,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2776,7 +2824,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2802,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,14 +2867,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,31 +2916,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2901,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2934,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,7 +2999,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2974,7 +3022,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3040,7 +3088,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,11 +3131,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3099,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,11 +3164,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3132,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3149,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>169</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,14 +3213,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3182,14 +3230,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3198,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3215,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,31 +3279,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>122</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,31 +3312,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,31 +3345,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,31 +3378,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3363,20 +3411,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3387,7 +3435,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3403,24 +3451,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3436,24 +3484,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3462,28 +3510,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>46</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3495,66 +3543,264 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q74" s="12">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>214</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>46</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>55</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>210</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3345.02</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>213</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>214</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>215</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>216</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>55</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>217</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>219</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>220</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>55</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>217</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>221</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>46</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>55</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>217</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>223</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>224</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>55</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>225</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>226</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>150</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>55</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>227</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3586.8899999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>229</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>230</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>231</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3903,10 +4149,40 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -269,13 +269,13 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:1</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
@@ -425,6 +425,12 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -461,15 +467,9 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>9:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -671,9 +671,6 @@
     <t>قطن ازن صغير</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -698,7 +695,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 8:08 PM</t>
+    <t>Wednesday, 18 June, 2025 8:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2049,7 +2046,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2692,7 +2689,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2699,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2715,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,14 +2732,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2758,7 +2755,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,11 +2765,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2784,14 +2781,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2798,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2814,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2831,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,14 +2847,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,11 +2864,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>34</v>
@@ -2883,14 +2880,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,11 +2897,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -2916,31 +2913,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,28 +2946,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2982,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,11 +2996,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3015,14 +3012,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3029,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,14 +3045,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,11 +3062,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>34</v>
@@ -3081,7 +3078,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3098,14 +3095,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3128,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3147,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,11 +3161,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3180,14 +3177,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,7 +3210,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3230,11 +3227,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>34</v>
@@ -3246,14 +3243,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3260,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,7 +3276,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3296,14 +3293,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3326,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,11 +3359,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3378,14 +3375,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3395,14 +3392,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,14 +3408,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3428,14 +3425,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3444,14 +3441,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3461,11 +3458,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>34</v>
@@ -3477,28 +3474,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>34</v>
@@ -3510,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3527,14 +3524,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,7 +3540,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3560,14 +3557,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>213</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,7 +3573,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3593,14 +3590,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>213</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,14 +3606,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3626,11 +3623,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3642,14 +3639,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3675,14 +3672,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3696,10 +3693,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3708,14 +3705,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3725,11 +3722,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>34</v>
@@ -3741,14 +3738,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3758,49 +3755,82 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>225</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>86</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>55</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>226</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3624.77</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
         <v>228</v>
       </c>
-      <c t="s" r="Q80" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3586.8899999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
         <v>229</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
         <v>230</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>231</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4179,10 +4209,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMARYL 1MG 30 TAB</t>
   </si>
   <si>
@@ -92,9 +107,6 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -149,9 +158,6 @@
     <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>142.00</t>
   </si>
   <si>
@@ -311,6 +317,12 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -647,12 +659,21 @@
     <t>6.0000</t>
   </si>
   <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -695,7 +716,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 8:19 PM</t>
+    <t>Wednesday, 18 June, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,7 +1423,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1412,14 +1433,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1428,14 +1449,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1452,7 +1473,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1461,14 +1482,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1478,14 +1499,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1501,7 +1522,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1511,14 +1532,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>36</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1534,7 +1555,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1544,14 +1565,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1560,14 +1581,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1577,11 +1598,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1593,14 +1614,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1610,14 +1631,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1626,14 +1647,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1643,14 +1664,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1666,7 +1687,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1676,14 +1697,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1692,31 +1713,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1732,24 +1753,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1791,14 +1812,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1808,14 +1829,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1890,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1907,14 +1928,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1923,14 +1944,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1940,11 +1961,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1973,14 +1994,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2022,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2105,14 +2126,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2128,7 +2149,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2138,14 +2159,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2161,7 +2182,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2187,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2204,14 +2225,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2220,7 +2241,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2237,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2270,14 +2291,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2336,11 +2357,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2458,7 +2479,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2468,14 +2489,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2484,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2524,7 +2545,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,14 +2555,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2590,7 +2611,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,14 +2621,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,14 +2654,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2656,7 +2677,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2682,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,11 +2720,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2715,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,14 +2753,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,11 +2786,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2781,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2798,14 +2819,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2885,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,14 +2918,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,31 +2967,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,28 +3033,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3045,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,14 +3083,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,14 +3099,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,14 +3116,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3111,14 +3132,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3149,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,14 +3165,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,14 +3182,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3177,14 +3198,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,14 +3215,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,14 +3231,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,14 +3248,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,14 +3281,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,14 +3297,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3293,14 +3314,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,14 +3330,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3326,14 +3347,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,14 +3363,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3359,7 +3380,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3382,7 +3403,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3392,14 +3413,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,14 +3429,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3425,14 +3446,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>184</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,14 +3462,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,14 +3479,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,14 +3495,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,14 +3512,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,31 +3528,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3540,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3573,31 +3594,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>213</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,31 +3627,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3639,31 +3660,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3672,31 +3693,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3705,31 +3726,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3751,7 +3772,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3759,10 +3780,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3771,66 +3792,165 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>227</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3624.77</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>22</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>57</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>224</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>228</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c t="s" r="Q82" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>229</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>230</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>57</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>231</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>232</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>88</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>57</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>233</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3874.77</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>235</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>236</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>237</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4214,10 +4334,25 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>ALVEOLIN-P SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMARYL 1MG 30 TAB</t>
   </si>
   <si>
@@ -185,6 +194,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -245,9 +257,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
@@ -275,210 +284,219 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>DROPIFLOX OTIC DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
+    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>FEMAPENT 2.5MG 14 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>495.00</t>
+  </si>
+  <si>
+    <t>163.3500</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>GAPTIN 400 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:23</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>HIPAMAX 20 CAP</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>PARAGESIC 500MG 5 SUPP.</t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>DROPIFLOX OTIC DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>198.0000</t>
-  </si>
-  <si>
-    <t>EZOGAST 40MG 14 DELA. REL. CAPS</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>FEMAPENT 2.5MG 14 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>495.00</t>
-  </si>
-  <si>
-    <t>163.3500</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>GAPTIN 400 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>0:23</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>11.5200</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>HIPAMAX 20 CAP</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>LEVANIC 500MG 7 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LIVABION 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>15.3600</t>
-  </si>
-  <si>
-    <t>NACTALIA 1 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PARACETAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>PARAGESIC 500MG 5 SUPP.</t>
-  </si>
-  <si>
-    <t>17.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -494,6 +512,15 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -677,6 +704,15 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -716,7 +752,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 8:29 PM</t>
+    <t>Wednesday, 18 June, 2025 8:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1440,7 +1476,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1449,14 +1485,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1473,7 +1509,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1482,14 +1518,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1499,14 +1535,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1522,7 +1558,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1532,14 +1568,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1548,14 +1584,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1565,14 +1601,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1588,7 +1624,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1598,14 +1634,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1614,14 +1650,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1631,11 +1667,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1647,14 +1683,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1671,7 +1707,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1687,7 +1723,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1697,14 +1733,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1713,14 +1749,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1730,14 +1766,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1753,24 +1789,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1779,31 +1815,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1819,7 +1855,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1829,14 +1865,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1845,14 +1881,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1862,14 +1898,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1878,14 +1914,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1895,14 +1931,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1911,14 +1947,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1928,14 +1964,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1944,14 +1980,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1961,14 +1997,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1977,14 +2013,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1994,11 +2030,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2010,14 +2046,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,14 +2063,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2043,14 +2079,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2067,7 +2103,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2083,7 +2119,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2093,14 +2129,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2109,14 +2145,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2130,10 +2166,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2149,7 +2185,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2159,14 +2195,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2175,14 +2211,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2192,14 +2228,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2208,14 +2244,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2225,14 +2261,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2248,7 +2284,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2258,14 +2294,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2281,7 +2317,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2291,14 +2327,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2307,7 +2343,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2324,14 +2360,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2347,7 +2383,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2364,7 +2400,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2380,7 +2416,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2394,10 +2430,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2406,14 +2442,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2423,11 +2459,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2439,14 +2475,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2492,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,14 +2508,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,14 +2525,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2505,14 +2541,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2526,10 +2562,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,14 +2574,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,14 +2591,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2571,14 +2607,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2588,14 +2624,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2604,14 +2640,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2621,14 +2657,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,7 +2673,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2654,14 +2690,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2670,7 +2706,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2687,14 +2723,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2703,14 +2739,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2720,14 +2756,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2736,14 +2772,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,14 +2789,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2769,14 +2805,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,7 +2822,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2809,7 +2845,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2826,7 +2862,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2842,7 +2878,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,7 +2888,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2875,7 +2911,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2892,7 +2928,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2918,14 +2954,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,14 +2970,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +2987,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2974,7 +3010,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,14 +3020,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3000,14 +3036,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3021,10 +3057,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3033,20 +3069,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3057,7 +3093,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3073,7 +3109,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3119,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,14 +3135,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,14 +3152,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3132,31 +3168,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3165,14 +3201,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3218,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3205,7 +3241,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3222,7 +3258,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3238,7 +3274,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,14 +3284,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3264,14 +3300,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,14 +3317,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3304,7 +3340,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,14 +3350,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3330,14 +3366,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3383,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>61</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,14 +3399,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,11 +3416,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3396,14 +3432,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,14 +3449,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,14 +3465,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,14 +3482,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,14 +3498,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,11 +3515,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3495,14 +3531,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,14 +3548,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>188</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3535,7 +3571,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3552,7 +3588,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3568,7 +3604,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,14 +3614,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3607,7 +3643,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3618,7 +3654,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3640,7 +3676,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3651,7 +3687,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3667,24 +3703,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,31 +3729,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>217</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,31 +3762,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,31 +3795,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3792,31 +3828,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3825,31 +3861,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3858,31 +3894,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3891,66 +3927,198 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3874.77</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>235</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>238</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>226</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>60</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>236</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>237</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c t="s" r="Q85" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>239</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>26</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>60</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>236</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>241</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>242</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>60</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>243</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>244</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>161</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>60</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>245</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4115.5299999999997</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>247</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>248</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>249</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4349,10 +4517,30 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -152,6 +152,15 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -548,9 +557,6 @@
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -752,7 +758,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 8:45 PM</t>
+    <t>Wednesday, 18 June, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1690,7 +1696,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1700,11 +1706,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1716,14 +1722,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1740,7 +1746,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1756,7 +1762,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1766,11 +1772,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>22</v>
@@ -1782,14 +1788,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1799,14 +1805,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1822,24 +1828,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1855,24 +1861,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1881,14 +1887,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1921,7 +1927,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1954,7 +1960,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1971,7 +1977,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1987,7 +1993,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2004,7 +2010,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2020,7 +2026,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2037,7 +2043,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2053,7 +2059,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2063,11 +2069,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2079,14 +2085,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2096,14 +2102,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2112,14 +2118,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2136,7 +2142,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2152,7 +2158,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2162,14 +2168,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2178,14 +2184,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2199,10 +2205,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2218,7 +2224,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2228,14 +2234,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2261,11 +2267,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2277,14 +2283,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2294,14 +2300,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2310,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2327,11 +2333,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>22</v>
@@ -2343,14 +2349,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2360,11 +2366,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2376,14 +2382,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2393,14 +2399,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2416,7 +2422,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2430,10 +2436,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2442,7 +2448,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2459,11 +2465,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2482,7 +2488,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2492,14 +2498,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2515,7 +2521,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2525,14 +2531,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2548,7 +2554,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2558,11 +2564,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2595,10 +2601,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2624,11 +2630,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2640,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2657,11 +2663,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2690,11 +2696,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2730,7 +2736,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2746,7 +2752,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2772,7 +2778,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2789,11 +2795,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2845,7 +2851,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2862,7 +2868,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2878,7 +2884,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2904,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2921,14 +2927,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2944,7 +2950,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2954,14 +2960,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2987,7 +2993,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3010,7 +3016,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3027,7 +3033,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3043,7 +3049,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3053,14 +3059,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,7 +3096,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3142,7 +3148,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3175,13 +3181,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3192,7 +3198,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3208,21 +3214,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3251,7 +3257,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3274,7 +3280,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3284,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3300,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3317,11 +3323,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3333,7 +3339,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3350,14 +3356,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3366,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3383,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3399,14 +3405,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3416,7 +3422,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3439,7 +3445,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3449,14 +3455,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3465,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3482,11 +3488,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3498,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3548,14 +3554,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3581,14 +3587,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3614,7 +3620,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3637,7 +3643,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3647,14 +3653,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3663,14 +3669,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>212</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3680,14 +3686,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3696,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3713,7 +3719,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3736,21 +3742,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3762,31 +3768,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3795,28 +3801,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>34</v>
@@ -3828,31 +3834,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>226</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3861,7 +3867,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3874,18 +3880,18 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3907,18 +3913,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3934,24 +3940,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3960,28 +3966,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>34</v>
@@ -3993,31 +3999,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4033,21 +4039,21 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4059,20 +4065,20 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4080,45 +4086,78 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>246</v>
       </c>
-      <c t="s" r="Q88" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4115.5299999999997</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>164</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>63</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
         <v>247</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
         <v>248</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c t="s" r="Q89" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4142.5299999999997</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>249</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>250</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>251</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4537,10 +4576,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -383,6 +383,15 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>FORTAZEDIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -710,7 +719,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>15.0000</t>
   </si>
   <si>
     <t>سرنجه دواء</t>
@@ -737,9 +746,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>ماسك وجه</t>
   </si>
   <si>
@@ -758,7 +764,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 8:57 PM</t>
+    <t>Wednesday, 18 June, 2025 8:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2554,7 +2560,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2571,7 +2577,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2587,7 +2593,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2597,11 +2603,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2634,10 +2640,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2663,11 +2669,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2729,11 +2735,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2769,7 +2775,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2785,7 +2791,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,7 +2817,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2828,11 +2834,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2884,7 +2890,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2901,7 +2907,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2917,7 +2923,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2943,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2983,7 +2989,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3026,7 +3032,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3049,7 +3055,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3066,7 +3072,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3082,7 +3088,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,7 +3135,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3181,7 +3187,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3214,13 +3220,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3231,7 +3237,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3247,21 +3253,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3290,11 +3296,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3346,7 +3352,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3396,7 +3402,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3412,7 +3418,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,14 +3428,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,11 +3461,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,11 +3527,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,7 +3576,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3643,7 +3649,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3726,7 +3732,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3742,7 +3748,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3752,11 +3758,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3768,28 +3774,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3825,7 +3831,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3841,7 +3847,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3851,11 +3857,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>34</v>
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>228</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3900,7 +3906,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3917,14 +3923,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,7 +3939,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3983,14 +3989,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4016,11 +4022,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>34</v>
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4049,14 +4055,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4098,14 +4104,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4119,45 +4125,78 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>248</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4142.5299999999997</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>167</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>63</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>249</v>
       </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
         <v>250</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c t="s" r="Q90" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4266.5299999999997</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>251</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>252</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>253</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4581,10 +4620,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -383,6 +383,12 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>FLATIDYL 40MG 30 CHEWABLE TABS</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -764,7 +770,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 8:58 PM</t>
+    <t>Wednesday, 18 June, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2560,7 +2566,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2570,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2586,14 +2592,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2603,14 +2609,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2636,11 +2642,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2652,14 +2658,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2669,14 +2675,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2692,7 +2698,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2706,7 +2712,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2725,7 +2731,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2735,11 +2741,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2751,14 +2757,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2768,11 +2774,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2784,7 +2790,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2801,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2817,14 +2823,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2850,7 +2856,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2867,11 +2873,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2900,14 +2906,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2916,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2933,14 +2939,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2949,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2966,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2989,7 +2995,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2999,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3015,14 +3021,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,14 +3038,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3055,7 +3061,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,11 +3071,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3081,14 +3087,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3098,14 +3104,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3131,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3164,11 +3170,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3230,11 +3236,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3246,31 +3252,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3279,24 +3285,24 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3319,7 +3325,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,7 +3335,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3352,7 +3358,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3362,14 +3368,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3378,14 +3384,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,11 +3401,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>22</v>
@@ -3411,7 +3417,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3428,14 +3434,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3461,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,7 +3500,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3517,7 +3523,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,11 +3566,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>22</v>
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3626,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>64</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3642,14 +3648,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3692,7 +3698,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3715,7 +3721,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3741,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3791,7 +3797,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>148</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3814,21 +3820,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3857,14 +3863,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3873,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3890,11 +3896,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>34</v>
@@ -3906,14 +3912,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3923,14 +3929,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>231</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3939,7 +3945,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3956,14 +3962,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>167</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4012,7 +4018,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4055,11 +4061,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>34</v>
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4121,11 +4127,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>22</v>
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4158,45 +4164,78 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>250</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4266.5299999999997</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>169</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>63</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>251</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>252</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c t="s" r="Q91" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4320.5299999999997</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
         <v>253</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>254</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>255</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4625,10 +4664,15 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -110,15 +110,21 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -770,7 +776,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 8:59 PM</t>
+    <t>Wednesday, 18 June, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,7 +1615,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1619,14 +1625,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1635,14 +1641,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1652,14 +1658,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1668,14 +1674,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1685,14 +1691,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1701,14 +1707,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1718,11 +1724,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1734,14 +1740,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1751,11 +1757,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1767,14 +1773,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1784,14 +1790,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1800,14 +1806,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1817,7 +1823,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1840,7 +1846,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1850,14 +1856,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1866,31 +1872,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1899,31 +1905,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1932,14 +1938,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1949,11 +1955,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>22</v>
@@ -1965,14 +1971,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1982,11 +1988,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1998,14 +2004,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2015,14 +2021,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2031,14 +2037,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2048,14 +2054,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2064,14 +2070,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2081,14 +2087,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2097,14 +2103,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2114,7 +2120,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -2137,7 +2143,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2147,14 +2153,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2163,14 +2169,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2180,14 +2186,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2196,14 +2202,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2213,14 +2219,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2229,14 +2235,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2246,14 +2252,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2262,14 +2268,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2279,14 +2285,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2295,14 +2301,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2312,11 +2318,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2335,7 +2341,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2345,14 +2351,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2368,7 +2374,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2378,11 +2384,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2394,14 +2400,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2411,7 +2417,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2434,7 +2440,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2444,14 +2450,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2460,14 +2466,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2477,14 +2483,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2514,7 +2520,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2543,14 +2549,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2559,14 +2565,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2576,14 +2582,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2599,7 +2605,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2609,14 +2615,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2625,14 +2631,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2642,14 +2648,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2658,14 +2664,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2675,11 +2681,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2691,14 +2697,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2708,14 +2714,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2731,7 +2737,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2745,7 +2751,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2764,7 +2770,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2774,11 +2780,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2790,14 +2796,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2807,11 +2813,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2823,7 +2829,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2840,14 +2846,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2856,14 +2862,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,7 +2895,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2906,11 +2912,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,14 +2945,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2955,14 +2961,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2972,14 +2978,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2988,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3028,7 +3034,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,14 +3044,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3094,7 +3100,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3104,11 +3110,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3120,14 +3126,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3137,14 +3143,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3153,14 +3159,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3170,14 +3176,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,11 +3209,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,11 +3242,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,11 +3275,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3285,31 +3291,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,24 +3324,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>109</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3358,7 +3364,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3368,7 +3374,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3391,7 +3397,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3401,14 +3407,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3417,14 +3423,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,11 +3440,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>22</v>
@@ -3450,7 +3456,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3467,14 +3473,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3489,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,14 +3506,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3516,14 +3522,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,7 +3539,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3556,7 +3562,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,14 +3572,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3582,14 +3588,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,11 +3605,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>22</v>
@@ -3615,14 +3621,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3665,14 +3671,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3681,14 +3687,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3704,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,14 +3720,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3731,7 +3737,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3754,7 +3760,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,14 +3770,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3780,14 +3786,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,14 +3803,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3813,14 +3819,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,7 +3836,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3853,21 +3859,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -3879,31 +3885,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3912,31 +3918,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,31 +3951,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>233</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3978,7 +3984,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -3991,18 +3997,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>169</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4024,18 +4030,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4051,24 +4057,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4077,31 +4083,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4110,31 +4116,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4143,28 +4149,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>22</v>
@@ -4176,20 +4182,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4197,45 +4203,78 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>252</v>
       </c>
-      <c t="s" r="Q91" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4320.5299999999997</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>171</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>65</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
         <v>253</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
         <v>254</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c t="s" r="Q92" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4354.1899999999996</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>255</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>256</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>257</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4669,10 +4708,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -776,7 +776,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:04 PM</t>
+    <t>Wednesday, 18 June, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -224,6 +224,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>CIPROFLOXACIN-ORGANO 500 MG 10 F.C.TABS.</t>
   </si>
   <si>
@@ -302,9 +311,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -335,9 +341,6 @@
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>DROPIFLOX OTIC DROPS 15 ML</t>
   </si>
   <si>
@@ -776,7 +779,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:06 PM</t>
+    <t>Wednesday, 18 June, 2025 9:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2011,7 +2014,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2044,7 +2047,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2061,7 +2064,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2077,7 +2080,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2094,7 +2097,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2110,7 +2113,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2127,7 +2130,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2143,7 +2146,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2169,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2186,14 +2189,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2202,14 +2205,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2226,7 +2229,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2242,7 +2245,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2252,14 +2255,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2268,14 +2271,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2285,14 +2288,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2301,14 +2304,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2318,14 +2321,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2334,14 +2337,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2351,11 +2354,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2374,7 +2377,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2384,14 +2387,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2407,7 +2410,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2417,11 +2420,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2433,14 +2436,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2450,11 +2453,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2466,14 +2469,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2483,14 +2486,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2499,14 +2502,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2516,14 +2519,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2532,7 +2535,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2549,11 +2552,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2565,14 +2568,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2582,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2598,14 +2601,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2615,14 +2618,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2631,14 +2634,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2648,14 +2651,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2664,14 +2667,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2681,14 +2684,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2697,14 +2700,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2714,11 +2717,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2730,14 +2733,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2747,14 +2750,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2763,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2780,11 +2783,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2796,14 +2799,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2813,11 +2816,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2836,7 +2839,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2846,11 +2849,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2862,7 +2865,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2879,14 +2882,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2895,14 +2898,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2912,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2945,11 +2948,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2968,7 +2971,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2978,14 +2981,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2994,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3011,14 +3014,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3027,14 +3030,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3044,14 +3047,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3060,14 +3063,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>43</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3110,14 +3113,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3126,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3143,11 +3146,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3159,14 +3162,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3176,14 +3179,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3192,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3209,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3225,14 +3228,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3242,11 +3245,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3258,14 +3261,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,11 +3278,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3291,14 +3294,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3308,11 +3311,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3324,31 +3327,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3357,28 +3360,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3390,14 +3393,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3407,11 +3410,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3423,14 +3426,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3440,14 +3443,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3456,14 +3459,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,11 +3476,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>22</v>
@@ -3489,7 +3492,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3506,14 +3509,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3522,14 +3525,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3539,14 +3542,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3555,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3572,11 +3575,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3588,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3605,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3621,14 +3624,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3638,11 +3641,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>22</v>
@@ -3661,7 +3664,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3671,14 +3674,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3687,7 +3690,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3704,14 +3707,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3727,7 +3730,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3737,14 +3740,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3753,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3770,11 +3773,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3786,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3803,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3819,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3836,14 +3839,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3852,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3869,11 +3872,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -3885,28 +3888,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -3918,14 +3921,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3935,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3951,14 +3954,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3968,11 +3971,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>37</v>
@@ -3984,14 +3987,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4001,14 +4004,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>235</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4034,14 +4037,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>171</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4050,7 +4053,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4067,14 +4070,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4083,14 +4086,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4100,14 +4103,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4116,14 +4119,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4133,11 +4136,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>37</v>
@@ -4156,7 +4159,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4166,14 +4169,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4189,7 +4192,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4199,11 +4202,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4215,14 +4218,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4232,49 +4235,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>253</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>172</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>65</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>254</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4354.1899999999996</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>255</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c t="s" r="Q93" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>4390.1899999999996</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
         <v>256</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
         <v>257</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>258</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4713,10 +4749,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -314,6 +314,12 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DEMAFIGHT 5 MG 30 SCORED TABS</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -356,9 +362,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -728,6 +731,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -779,7 +791,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:07 PM</t>
+    <t>Wednesday, 18 June, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2311,7 +2323,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2321,11 +2333,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2354,14 +2366,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2370,14 +2382,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2387,11 +2399,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2410,7 +2422,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2420,14 +2432,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2453,11 +2465,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2486,7 +2498,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2509,7 +2521,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2568,7 +2580,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2585,11 +2597,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2601,14 +2613,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2618,14 +2630,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2651,14 +2663,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2729,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,11 +2762,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2816,11 +2828,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2849,11 +2861,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2872,7 +2884,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2882,11 +2894,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2898,7 +2910,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2915,14 +2927,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2981,11 +2993,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -3004,7 +3016,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3014,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3030,14 +3042,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3047,14 +3059,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3063,14 +3075,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3129,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3191,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3224,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3228,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,11 +3290,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>22</v>
@@ -3294,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3344,11 +3356,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3360,31 +3372,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3393,28 +3405,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3426,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3443,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3509,11 +3521,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>22</v>
@@ -3525,7 +3537,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3542,14 +3554,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3558,14 +3570,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,14 +3587,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,11 +3620,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,14 +3653,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,11 +3686,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>22</v>
@@ -3697,7 +3709,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,14 +3719,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,7 +3735,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3763,7 +3775,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,14 +3801,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3806,11 +3818,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3822,14 +3834,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3839,14 +3851,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,14 +3900,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3905,11 +3917,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -3921,28 +3933,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>22</v>
@@ -3954,14 +3966,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>230</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,14 +3983,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,14 +3999,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4004,11 +4016,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>37</v>
@@ -4020,14 +4032,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,14 +4049,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>236</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4060,7 +4072,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,14 +4082,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>172</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,7 +4098,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4103,14 +4115,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4126,7 +4138,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4136,14 +4148,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4152,14 +4164,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4169,14 +4181,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4185,14 +4197,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4202,14 +4214,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4218,14 +4230,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4235,14 +4247,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4258,7 +4270,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4268,49 +4280,115 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>254</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
         <v>255</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>4390.1899999999996</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>65</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
         <v>256</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>257</v>
       </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>173</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>65</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
         <v>258</v>
       </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4568.1899999999996</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>260</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>261</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>262</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4754,10 +4832,20 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -791,7 +791,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:11 PM</t>
+    <t>Wednesday, 18 June, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -492,6 +492,12 @@
   </si>
   <si>
     <t>24.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>4:6</t>
   </si>
   <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
@@ -3148,7 +3154,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3214,7 +3220,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,11 +3230,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3323,11 +3329,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>22</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>22</v>
@@ -3405,31 +3411,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3438,24 +3444,24 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3478,7 +3484,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,7 +3494,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3511,7 +3517,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>50</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,11 +3560,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>22</v>
@@ -3570,7 +3576,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,7 +3659,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3676,7 +3682,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,11 +3725,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,7 +3857,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3874,7 +3880,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3884,14 +3890,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,14 +3923,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3933,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,7 +3956,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -3973,21 +3979,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>22</v>
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>232</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4049,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>37</v>
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,14 +4088,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4098,14 +4104,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,14 +4121,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>237</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,7 +4137,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4148,14 +4154,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4181,14 +4187,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4204,7 +4210,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4214,14 +4220,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4247,11 +4253,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>37</v>
@@ -4263,14 +4269,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4313,11 +4319,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4350,45 +4356,78 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>259</v>
       </c>
-      <c t="s" r="Q95" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4568.1899999999996</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>175</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>65</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
         <v>260</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>261</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c t="s" r="Q96" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4648.1899999999996</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>262</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>263</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>264</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4842,10 +4881,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -797,7 +797,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:16 PM</t>
+    <t>Wednesday, 18 June, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -158,15 +167,21 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
     <t>54.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -242,6 +257,15 @@
     <t>63.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 457MG/5ML PD. FOR ORAL 75 ML</t>
   </si>
   <si>
@@ -797,7 +821,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:18 PM</t>
+    <t>Wednesday, 18 June, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1669,7 +1693,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1686,7 +1710,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1695,14 +1719,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1712,14 +1736,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1735,7 +1759,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1745,14 +1769,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1761,14 +1785,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1801,7 +1825,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1811,14 +1835,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1827,14 +1851,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1844,14 +1868,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1860,14 +1884,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1877,14 +1901,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1900,7 +1924,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1910,14 +1934,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1933,13 +1957,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1947,10 +1971,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1959,14 +1983,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1976,14 +2000,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1992,31 +2016,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2025,14 +2049,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2042,11 +2066,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -2058,14 +2082,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2075,11 +2099,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>22</v>
@@ -2091,14 +2115,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2157,7 +2181,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2190,14 +2214,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2207,7 +2231,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2230,7 +2254,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2240,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2256,7 +2280,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2322,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2339,14 +2363,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2362,7 +2386,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2405,14 +2429,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2428,7 +2452,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2438,14 +2462,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2471,11 +2495,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2504,14 +2528,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2537,14 +2561,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2570,14 +2594,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2593,7 +2617,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2603,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2619,7 +2643,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2636,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2659,7 +2683,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2669,14 +2693,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2692,7 +2716,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2702,14 +2726,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2725,7 +2749,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2742,7 +2766,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2758,7 +2782,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2791,7 +2815,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2801,14 +2825,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2817,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2834,14 +2858,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2850,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2867,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2890,7 +2914,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,14 +2924,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2916,14 +2940,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2933,11 +2957,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2949,7 +2973,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2966,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2982,14 +3006,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,11 +3023,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -3015,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3032,11 +3056,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3048,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3065,11 +3089,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3081,7 +3105,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3098,11 +3122,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3131,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3154,7 +3178,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3164,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3180,14 +3204,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3197,11 +3221,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,11 +3254,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3263,14 +3287,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3286,7 +3310,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3303,7 +3327,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3319,7 +3343,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3329,14 +3353,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3345,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3378,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3419,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3428,11 +3452,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>22</v>
@@ -3444,31 +3468,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3477,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3517,7 +3541,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3543,31 +3567,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3576,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,14 +3617,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3616,7 +3640,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,14 +3650,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>56</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3642,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3659,14 +3683,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3675,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3716,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3708,14 +3732,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3749,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,14 +3765,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3782,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3798,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3791,11 +3815,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3807,14 +3831,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,11 +3848,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>22</v>
@@ -3840,14 +3864,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3881,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,14 +3897,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3890,11 +3914,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3906,14 +3930,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,14 +3947,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>210</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,14 +3980,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3972,14 +3996,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,14 +4013,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4005,31 +4029,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4038,31 +4062,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4071,31 +4095,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4104,28 +4128,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4137,7 +4161,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4150,18 +4174,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>239</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4177,24 +4201,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>175</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4203,28 +4227,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>22</v>
@@ -4236,31 +4260,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>251</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>247</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4276,24 +4300,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4302,7 +4326,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4315,15 +4339,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>22</v>
@@ -4335,31 +4359,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4368,20 +4392,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4392,42 +4416,141 @@
         <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4648.1899999999996</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>262</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>263</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>26</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>70</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>260</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>264</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>265</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>70</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>266</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>267</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>183</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>70</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>268</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4730.5900000000001</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>270</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>271</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>272</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4886,10 +5009,25 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -212,10 +212,10 @@
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>19.2000</t>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>38.4000</t>
   </si>
   <si>
     <t>CERELAC رز و حديد</t>
@@ -356,10 +356,10 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -443,6 +443,15 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>GAVISCON ADVANCE 150 ML SUSP</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -776,33 +785,33 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>45:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>قطن ازن صغير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>45:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>قطن ازن صغير</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
     <t>ماسك وجه</t>
   </si>
   <si>
@@ -821,7 +830,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 9:29 PM</t>
+    <t>Wednesday, 18 June, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2007,7 +2016,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2535,7 +2544,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2914,7 +2923,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2940,14 +2949,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2961,10 +2970,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,11 +2999,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,11 +3032,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3056,11 +3065,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3096,7 +3105,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3112,7 +3121,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3138,7 +3147,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3155,11 +3164,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3211,7 +3220,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3228,7 +3237,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3244,7 +3253,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3343,7 +3352,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3386,7 +3395,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3409,7 +3418,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3426,7 +3435,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>183</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,7 +3498,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>22</v>
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3541,7 +3550,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3574,13 +3583,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3591,7 +3600,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3607,21 +3616,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,11 +3659,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3706,7 +3715,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3756,7 +3765,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3772,7 +3781,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,11 +3824,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3831,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>126</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,11 +3890,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3914,14 +3923,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,7 +3939,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3947,14 +3956,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4003,7 +4012,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4013,11 +4022,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>149</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4029,14 +4038,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>218</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4086,7 +4095,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4102,7 +4111,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4112,11 +4121,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4128,28 +4137,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>240</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4161,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4185,7 +4194,7 @@
         <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4201,7 +4210,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,11 +4220,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>37</v>
@@ -4227,14 +4236,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4251,7 +4260,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4267,7 +4276,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>247</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,7 +4302,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>183</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4326,7 +4335,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4366,7 +4375,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,14 +4385,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4392,14 +4401,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4409,11 +4418,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>37</v>
@@ -4425,14 +4434,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>265</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4498,7 +4507,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4508,49 +4517,82 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4730.5900000000001</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>270</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>186</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>70</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
         <v>271</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>272</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4908.6700000000001</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>273</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>274</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>275</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5024,10 +5066,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -425,6 +425,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FORTAZEDIM 1 GM VIAL</t>
   </si>
   <si>
@@ -434,6 +443,15 @@
     <t>118.0000</t>
   </si>
   <si>
+    <t>FUSIDERM 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>GAPTIN 400 MG 30 CAPS.</t>
   </si>
   <si>
@@ -479,6 +497,15 @@
     <t>HIPAMAX 20 CAP</t>
   </si>
   <si>
+    <t>IMIPRAMINE 25MG 50 TAB.</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -512,6 +539,9 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>NACTALIA 1 MILK 400 GM</t>
   </si>
   <si>
@@ -527,6 +557,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>135.6300</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -668,129 +707,150 @@
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
-    <t>49.5000</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
+  </si>
+  <si>
+    <t>VILDABETES 50/1000MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>186.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8655:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>ZINCOLIVE LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>18.0000</t>
   </si>
   <si>
-    <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
-  </si>
-  <si>
-    <t>VILDABETES 50/1000MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>186.00</t>
-  </si>
-  <si>
-    <t>61.3800</t>
-  </si>
-  <si>
-    <t>VOMIBREAK 30 DELAYED RELEASE F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8655:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 5 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>ZOVIRAX D.S 400MG/5ML SUSP.100 ML</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
     <t>3.0000</t>
   </si>
   <si>
+    <t>شاش فازلين 10*10 سم</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -800,9 +860,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
@@ -818,19 +875,10 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>Wednesday, 18 June, 2025 9:44 PM</t>
+    <t>Wednesday, 18 June, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2857,7 +2905,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2874,7 +2922,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2890,7 +2938,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2907,7 +2955,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2923,7 +2971,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2956,7 +3004,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2966,11 +3014,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2982,14 +3030,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,11 +3047,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -3022,7 +3070,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3048,14 +3096,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,7 +3113,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3081,7 +3129,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3098,11 +3146,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -3114,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3154,7 +3202,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,14 +3228,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,11 +3245,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3213,14 +3261,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,11 +3278,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3246,7 +3294,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3263,11 +3311,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3279,14 +3327,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,14 +3344,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3312,14 +3360,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>71</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,14 +3393,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,11 +3410,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3385,7 +3433,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,14 +3443,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3411,14 +3459,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,7 +3476,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3451,7 +3499,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3468,7 +3516,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3494,14 +3542,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,11 +3575,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>22</v>
@@ -3543,14 +3591,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3608,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3641,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3609,31 +3657,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,14 +3690,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3659,14 +3707,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3675,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3740,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3715,7 +3763,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3748,7 +3796,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3781,13 +3829,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3798,7 +3846,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3814,7 +3862,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,11 +3872,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3840,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,11 +3905,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3873,14 +3921,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3938,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -3906,14 +3954,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,11 +3971,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>22</v>
@@ -3939,14 +3987,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +4004,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3979,7 +4027,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +4037,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,14 +4053,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,14 +4070,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>126</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4038,14 +4086,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4103,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,14 +4119,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4088,14 +4136,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>221</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4111,7 +4159,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4121,11 +4169,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>22</v>
@@ -4137,14 +4185,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,11 +4202,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4170,31 +4218,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,31 +4251,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,31 +4284,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>37</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,28 +4317,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4302,7 +4350,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4315,18 +4363,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>250</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,7 +4383,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4348,18 +4396,18 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,14 +4416,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,11 +4433,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>22</v>
@@ -4401,14 +4449,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,11 +4466,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>37</v>
@@ -4434,14 +4482,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4451,11 +4499,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>37</v>
@@ -4467,14 +4515,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,11 +4532,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4500,14 +4548,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4517,11 +4565,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>22</v>
@@ -4533,14 +4581,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4550,49 +4598,313 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4908.6700000000001</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>273</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>26</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>70</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>260</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>274</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c t="s" r="Q101" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>275</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>26</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>70</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>260</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>276</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>277</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>263</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>70</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>278</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>280</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>281</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>70</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>282</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>283</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>263</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>70</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>282</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>284</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>26</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>70</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>282</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>286</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>287</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>70</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>145</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>288</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>199</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>70</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>267</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5280.7399999999998</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>289</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>290</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>291</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5071,10 +5383,50 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -329,6 +329,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -461,6 +470,15 @@
     <t>51.4800</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GAVISCON ADVANCE 150 ML SUSP</t>
   </si>
   <si>
@@ -551,6 +569,15 @@
     <t>240.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
@@ -614,6 +641,15 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>PROTOLANS 60 MG 14 CAPSULES</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>68.5000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -662,9 +698,6 @@
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
-    <t>17.8200</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -779,63 +812,57 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>رول اون ريكسونا25</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>سائل ريد</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>رول اون ريكسونا25</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>زيت جونسون صغير</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>سائل ريد</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -866,19 +893,19 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>ماسك وجه</t>
   </si>
   <si>
     <t>13:0</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:28 PM</t>
+    <t>Wednesday, 18 June, 2025 10:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2476,7 +2503,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2486,14 +2513,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2509,7 +2536,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2519,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2535,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2552,7 +2579,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2575,7 +2602,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2585,14 +2612,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2618,14 +2645,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2634,14 +2661,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2651,14 +2678,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2667,14 +2694,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2684,11 +2711,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2700,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2717,11 +2744,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2733,14 +2760,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2750,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>126</v>
+        <v>59</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2773,7 +2800,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2787,10 +2814,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2799,7 +2826,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2816,11 +2843,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2839,7 +2866,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2849,14 +2876,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2872,7 +2899,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2882,14 +2909,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2898,14 +2925,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2915,14 +2942,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2938,7 +2965,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2955,7 +2982,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2971,7 +2998,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2988,7 +3015,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3004,7 +3031,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3021,7 +3048,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3037,7 +3064,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3054,7 +3081,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3080,11 +3107,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3096,14 +3123,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3113,11 +3140,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -3136,7 +3163,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3146,14 +3173,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3162,14 +3189,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3179,7 +3206,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3195,7 +3222,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3212,14 +3239,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3228,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3245,11 +3272,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3301,7 +3328,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3311,11 +3338,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3327,14 +3354,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3344,14 +3371,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3360,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3377,14 +3404,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3393,14 +3420,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3410,11 +3437,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3426,14 +3453,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3443,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3459,14 +3486,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,14 +3503,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3492,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3509,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3525,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3569,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3558,14 +3585,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3575,14 +3602,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3591,14 +3618,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3608,11 +3635,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3624,14 +3651,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3641,14 +3668,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3657,14 +3684,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3674,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3690,14 +3717,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3707,14 +3734,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3730,7 +3757,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3740,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3756,14 +3783,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3773,14 +3800,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3789,14 +3816,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>32</v>
+        <v>208</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3810,7 +3837,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>22</v>
@@ -3822,7 +3849,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3835,15 +3862,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3855,14 +3882,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,14 +3899,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3888,7 +3915,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3905,14 +3932,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3921,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,11 +3965,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>22</v>
@@ -3954,31 +3981,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +4014,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4031,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4020,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4037,11 +4064,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4053,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4070,14 +4097,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4103,14 +4130,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4126,7 +4153,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4136,14 +4163,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4152,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4169,14 +4196,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4185,14 +4212,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4202,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4218,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4235,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4251,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4268,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4284,14 +4311,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4301,14 +4328,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>236</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,7 +4344,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4334,11 +4361,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>22</v>
@@ -4350,14 +4377,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4367,14 +4394,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4390,7 +4417,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4400,14 +4427,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4429,7 +4456,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4440,7 +4467,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4456,13 +4483,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4473,7 +4500,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4489,24 +4516,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4515,28 +4542,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>180</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>22</v>
@@ -4548,14 +4575,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,14 +4592,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4581,7 +4608,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4598,14 +4625,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>263</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4614,14 +4641,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4631,14 +4658,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4654,7 +4681,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4664,11 +4691,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4680,14 +4707,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4697,11 +4724,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4713,14 +4740,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4730,14 +4757,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>37</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4753,7 +4780,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4763,14 +4790,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4796,7 +4823,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4819,7 +4846,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4829,11 +4856,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>146</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>22</v>
@@ -4845,14 +4872,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>199</v>
+        <v>290</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4862,49 +4889,214 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>268</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5280.7399999999998</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>289</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>290</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>292</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>267</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>70</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
         <v>291</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>293</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>26</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>70</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>291</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>294</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>295</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>70</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>148</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>296</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>37</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>70</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>209</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>297</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>208</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>70</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>276</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5552.085</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>298</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>299</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>300</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5423,10 +5615,35 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -905,7 +905,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:33 PM</t>
+    <t>Wednesday, 18 June, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>ALVEOLIN-P SYRUP 100 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -905,7 +914,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:34 PM</t>
+    <t>Wednesday, 18 June, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1588,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1589,14 +1598,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1629,7 +1638,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1645,7 +1654,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1655,14 +1664,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1671,14 +1680,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1695,7 +1704,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1704,14 +1713,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>35</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1754,11 +1763,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1787,11 +1796,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1810,7 +1819,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1827,7 +1836,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1836,7 +1845,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1853,14 +1862,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1876,7 +1885,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1886,14 +1895,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1902,14 +1911,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1926,7 +1935,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1942,7 +1951,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1956,10 +1965,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1989,7 +1998,7 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2025,7 +2034,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2041,7 +2050,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2067,14 +2076,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2084,14 +2093,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2107,24 +2116,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2140,24 +2149,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2190,7 +2199,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2206,7 +2215,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2223,7 +2232,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2239,7 +2248,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2256,7 +2265,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2272,7 +2281,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2289,7 +2298,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2305,7 +2314,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2322,7 +2331,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2338,7 +2347,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2355,7 +2364,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2371,7 +2380,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2388,7 +2397,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2404,7 +2413,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2414,11 +2423,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2487,7 +2496,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2503,7 +2512,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2520,7 +2529,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2536,7 +2545,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2635,7 +2644,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2694,14 +2703,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2744,14 +2753,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2777,14 +2786,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2793,14 +2802,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2810,14 +2819,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2833,7 +2842,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2847,10 +2856,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2859,7 +2868,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2899,7 +2908,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2932,7 +2941,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,11 +2951,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2998,7 +3007,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3015,7 +3024,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3031,7 +3040,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3048,7 +3057,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3064,7 +3073,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3081,7 +3090,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3097,7 +3106,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3107,7 +3116,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3130,7 +3139,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3140,14 +3149,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3163,7 +3172,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3210,10 +3219,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3222,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3239,14 +3248,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3272,14 +3281,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3288,14 +3297,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3305,14 +3314,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3328,7 +3337,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3345,7 +3354,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3361,7 +3370,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3378,7 +3387,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3394,7 +3403,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,14 +3479,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3493,7 +3502,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3503,14 +3512,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3559,7 +3568,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3576,7 +3585,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3592,7 +3601,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3602,11 +3611,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3618,7 +3627,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3635,7 +3644,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3658,7 +3667,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3724,7 +3733,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,14 +3759,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3767,7 +3776,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3790,7 +3799,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3807,7 +3816,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3823,7 +3832,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3833,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3856,7 +3865,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3889,7 +3898,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3939,7 +3948,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3955,7 +3964,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3972,7 +3981,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3988,13 +3997,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4005,7 +4014,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4021,21 +4030,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4080,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>59</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4120,7 +4129,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4137,7 +4146,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,7 +4179,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4186,7 +4195,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,14 +4271,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4335,7 +4344,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4417,7 +4426,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4427,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>259</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4500,7 +4509,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4516,7 +4525,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,31 +4584,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4615,24 +4624,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4648,13 +4657,13 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
@@ -4665,7 +4674,7 @@
         <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4681,13 +4690,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4698,7 +4707,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4714,13 +4723,13 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
@@ -4731,7 +4740,7 @@
         <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4747,24 +4756,24 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,31 +4782,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>124</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4806,31 +4815,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4839,31 +4848,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4879,24 +4888,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>149</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4912,24 +4921,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4938,31 +4947,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>270</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4971,31 +4980,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>295</v>
+        <v>29</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>148</v>
+        <v>294</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5004,31 +5013,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5037,66 +5046,99 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>277</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5552.085</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>298</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>299</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>300</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>211</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>73</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>279</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5610.085</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>301</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>302</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>303</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5640,10 +5682,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:35 PM</t>
+    <t>Wednesday, 18 June, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -284,6 +284,12 @@
     <t>73.0000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>COLA - CHOND 30 TABS</t>
   </si>
   <si>
@@ -557,6 +563,9 @@
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -914,7 +923,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:36 PM</t>
+    <t>Wednesday, 18 June, 2025 10:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2347,7 +2356,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2373,14 +2382,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2390,14 +2399,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2406,14 +2415,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2423,14 +2432,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2439,14 +2448,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2456,7 +2465,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2479,7 +2488,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2489,14 +2498,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2505,14 +2514,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2522,14 +2531,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2538,14 +2547,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2555,14 +2564,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2571,14 +2580,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2588,14 +2597,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2621,14 +2630,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2644,7 +2653,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2654,11 +2663,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2670,14 +2679,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2687,14 +2696,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2703,14 +2712,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2720,14 +2729,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2743,7 +2752,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2753,14 +2762,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2769,14 +2778,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2786,11 +2795,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2802,14 +2811,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2819,11 +2828,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2835,14 +2844,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2852,14 +2861,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2868,14 +2877,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2885,14 +2894,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2922,7 +2931,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2934,14 +2943,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,14 +2993,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3007,7 +3016,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3017,14 +3026,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,14 +3092,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3099,14 +3108,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3116,14 +3125,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,11 +3158,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3271,7 +3280,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3285,7 +3294,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3304,7 +3313,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3314,11 +3323,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,14 +3356,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3363,7 +3372,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,7 +3405,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,7 +3471,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3479,11 +3488,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3521,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,7 +3603,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,11 +3686,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3719,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,11 +3950,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +3983,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4016,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4023,31 +4032,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,7 +4065,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4073,14 +4082,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,28 +4098,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4129,7 +4138,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,14 +4346,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4393,7 +4402,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>20</v>
+        <v>253</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,11 +4412,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>20</v>
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,14 +4461,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>259</v>
+        <v>35</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4502,14 +4511,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,14 +4527,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,14 +4560,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4593,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,11 +4610,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>20</v>
@@ -4617,31 +4626,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,7 +4659,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4663,18 +4672,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4709,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>40</v>
@@ -4716,14 +4725,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>127</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4865,14 +4874,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4888,7 +4897,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,14 +4907,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>29</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,14 +4940,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4964,14 +4973,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>152</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4980,14 +4989,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4997,11 +5006,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>40</v>
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5030,14 +5039,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>151</v>
+        <v>297</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5053,7 +5062,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5063,14 +5072,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5086,7 +5095,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5096,49 +5105,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>279</v>
+        <v>153</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5610.085</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>301</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>302</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>40</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>73</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>215</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>303</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>214</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>73</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>282</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5635.9250000000002</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>304</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>305</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>306</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5687,10 +5762,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -386,6 +386,12 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -923,7 +929,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:39 PM</t>
+    <t>Wednesday, 18 June, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2752,7 +2758,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,11 +2768,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2785,7 +2791,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,11 +2834,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,11 +2867,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2964,7 +2970,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2976,14 +2982,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3049,7 +3055,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3125,14 +3131,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3191,11 +3197,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3313,7 +3319,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3327,7 +3333,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3346,7 +3352,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3389,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3405,7 +3411,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3422,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3438,7 +3444,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3504,7 +3510,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3521,11 +3527,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,11 +3593,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3620,14 +3626,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3719,7 +3725,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3752,11 +3758,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3768,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3808,7 +3814,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>30</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3874,7 +3880,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3884,11 +3890,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,14 +3939,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3950,14 +3956,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3987,10 +3993,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,11 +4055,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>20</v>
@@ -4098,31 +4104,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,24 +4137,24 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4171,7 +4177,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,11 +4187,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,11 +4253,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4263,7 +4269,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4352,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4369,7 +4375,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4379,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4402,7 +4408,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4412,14 +4418,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4435,7 +4441,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4445,11 +4451,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>20</v>
@@ -4461,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4478,11 +4484,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>20</v>
@@ -4494,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4511,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4527,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4544,7 +4550,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4567,7 +4573,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4577,14 +4583,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4610,14 +4616,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4643,7 +4649,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4676,7 +4682,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4699,24 +4705,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4725,14 +4731,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4746,7 +4752,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>40</v>
@@ -4758,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4775,11 +4781,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>40</v>
@@ -4791,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4808,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4824,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4841,11 +4847,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4857,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4874,14 +4880,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>273</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4907,14 +4913,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>129</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4923,7 +4929,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4940,14 +4946,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4963,7 +4969,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4973,11 +4979,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>20</v>
@@ -4989,14 +4995,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5006,14 +5012,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5022,14 +5028,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5039,11 +5045,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>40</v>
@@ -5055,14 +5061,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5072,11 +5078,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>40</v>
@@ -5088,14 +5094,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5105,14 +5111,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5128,7 +5134,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5138,11 +5144,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5154,14 +5160,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5171,49 +5177,82 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5635.9250000000002</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>304</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>305</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>216</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>73</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>284</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="P118" s="13">
+        <v>5656.7150000000001</v>
+      </c>
+      <c r="Q118" s="13"/>
+    </row>
+    <row r="119" ht="16.5" customHeight="1">
+      <c t="s" r="A119" s="14">
         <v>306</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c t="s" r="G119" s="15">
+        <v>307</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c t="s" r="K119" s="17">
+        <v>308</v>
+      </c>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="17"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="567">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5772,10 +5811,15 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="K119:Q119"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -554,6 +563,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60 MG 6 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>-1:-5</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>212.0000</t>
+  </si>
+  <si>
     <t>KETOFAN 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -929,7 +950,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:40 PM</t>
+    <t>Wednesday, 18 June, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1900,7 +1921,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1917,7 +1938,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1933,7 +1954,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1943,14 +1964,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1959,14 +1980,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1983,7 +2004,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1999,7 +2020,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2013,10 +2034,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2046,7 +2067,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2058,14 +2079,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2082,7 +2103,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2098,7 +2119,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2108,11 +2129,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2141,14 +2162,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2164,24 +2185,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2197,24 +2218,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2296,7 +2317,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2313,7 +2334,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2346,7 +2367,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2362,7 +2383,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2405,7 +2426,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2428,7 +2449,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2445,7 +2466,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2482,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2478,7 +2499,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2494,7 +2515,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,11 +2525,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2553,14 +2574,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2577,7 +2598,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2593,7 +2614,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2610,7 +2631,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2626,7 +2647,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2659,7 +2680,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2669,14 +2690,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,7 +2723,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2725,7 +2746,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2756,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2758,7 +2779,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2772,10 +2793,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2784,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,11 +2822,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,11 +2888,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,11 +2921,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,14 +2954,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2956,7 +2977,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2970,10 +2991,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2982,7 +3003,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2999,11 +3020,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3022,7 +3043,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,14 +3053,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3055,7 +3076,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,14 +3086,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3098,14 +3119,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3121,7 +3142,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3138,7 +3159,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3154,7 +3175,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3171,7 +3192,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3187,7 +3208,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3204,7 +3225,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3220,7 +3241,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3230,7 +3251,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3253,7 +3274,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3286,7 +3307,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3312,14 +3333,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3333,10 +3354,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3345,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3362,11 +3383,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3395,11 +3416,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3411,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3468,7 +3489,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3501,7 +3522,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3517,7 +3538,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3527,14 +3548,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3543,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3560,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3593,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3609,14 +3630,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3626,14 +3647,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3713,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,7 +3729,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3725,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3779,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,11 +3812,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3807,14 +3828,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3890,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,14 +3944,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,14 +3960,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3956,14 +3977,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3972,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3993,10 +4014,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4005,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4043,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4059,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4078,7 +4099,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4095,7 +4116,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4111,7 +4132,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,11 +4142,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4137,31 +4158,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4170,7 +4191,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4187,14 +4208,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4203,28 +4224,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4236,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4290,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>62</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4335,14 +4356,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4359,7 +4380,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4375,7 +4396,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4401,14 +4422,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4418,14 +4439,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4434,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,14 +4472,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,14 +4521,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,11 +4538,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4533,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,14 +4571,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>260</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,14 +4587,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4604,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,14 +4637,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4632,14 +4653,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4649,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4672,7 +4693,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4698,14 +4719,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,11 +4736,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4731,31 +4752,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,7 +4785,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4777,18 +4798,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4797,28 +4818,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>40</v>
@@ -4830,31 +4851,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,31 +4884,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,31 +4917,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>275</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4929,31 +4950,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4962,7 +4983,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4975,18 +4996,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4995,31 +5016,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5028,31 +5049,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5061,31 +5082,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5094,28 +5115,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>40</v>
@@ -5127,31 +5148,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5160,31 +5181,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5193,66 +5214,132 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>216</v>
+        <v>310</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>284</v>
+        <v>158</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>285</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
-      <c r="P118" s="13">
-        <v>5656.7150000000001</v>
-      </c>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" ht="16.5" customHeight="1">
-      <c t="s" r="A119" s="14">
-        <v>306</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c t="s" r="G119" s="15">
-        <v>307</v>
-      </c>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="16"/>
-      <c t="s" r="K119" s="17">
-        <v>308</v>
-      </c>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
-      <c r="P119" s="17"/>
-      <c r="Q119" s="17"/>
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>311</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>40</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>76</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>224</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>312</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>223</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>76</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>291</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>6124.7150000000001</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>313</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>314</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>315</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="567">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5816,10 +5903,20 @@
     <mergeCell ref="H117:K117"/>
     <mergeCell ref="L117:M117"/>
     <mergeCell ref="N117:O117"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="K119:Q119"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -950,7 +950,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:43 PM</t>
+    <t>Wednesday, 18 June, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>9.6000</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>B-FRESH 0.05% (500ML) MOUTHWASH</t>
   </si>
   <si>
@@ -200,6 +209,15 @@
     <t>54.00</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -242,9 +260,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -539,9 +554,6 @@
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
     <t>HIPAMAX 20 CAP</t>
   </si>
   <si>
@@ -584,6 +596,12 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>LEVANIC 500MG 7 F.C. TAB.</t>
   </si>
   <si>
@@ -626,9 +644,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
   </si>
   <si>
@@ -644,6 +659,9 @@
     <t>4:6</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
@@ -782,6 +800,12 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>TAVACIN 500MG 5 F.C. TAB</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TELFAST 120MG 20 F.C. TAB</t>
   </si>
   <si>
@@ -794,12 +818,30 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -854,6 +896,9 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -902,7 +947,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -932,6 +977,15 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>قطن ازن صغير</t>
   </si>
   <si>
@@ -950,7 +1004,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:48 PM</t>
+    <t>Wednesday, 18 June, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2020,7 +2074,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2053,7 +2107,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2067,10 +2121,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2079,14 +2133,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2100,7 +2154,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2112,14 +2166,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2129,11 +2183,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2145,14 +2199,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2162,14 +2216,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2178,14 +2232,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2195,14 +2249,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2211,20 +2265,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2235,7 +2289,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2261,14 +2315,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2277,31 +2331,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2310,14 +2364,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2327,11 +2381,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2343,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2360,14 +2414,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2376,14 +2430,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2393,11 +2447,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2409,14 +2463,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2426,7 +2480,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2449,7 +2503,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2466,7 +2520,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2482,7 +2536,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2492,14 +2546,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2508,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2525,11 +2579,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2541,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2558,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2581,7 +2635,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,14 +2645,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2607,14 +2661,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2640,14 +2694,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2657,14 +2711,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2673,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2690,14 +2744,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2706,14 +2760,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2723,14 +2777,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2746,7 +2800,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2756,14 +2810,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2779,7 +2833,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2789,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2805,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2822,14 +2876,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2855,14 +2909,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2871,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2888,14 +2942,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2904,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2921,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2944,7 +2998,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,11 +3008,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2977,7 +3031,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2987,14 +3041,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3003,7 +3057,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3020,14 +3074,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3043,7 +3097,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3060,7 +3114,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3076,7 +3130,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3086,14 +3140,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3102,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3119,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3142,7 +3196,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>152</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,14 +3206,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3175,7 +3229,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,14 +3239,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3201,14 +3255,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,14 +3272,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3234,14 +3288,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3251,14 +3305,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3267,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3284,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3300,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3317,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,11 +3404,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>65</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3366,14 +3420,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3383,11 +3437,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3399,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3420,10 +3474,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3432,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3465,7 +3519,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3482,14 +3536,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3505,7 +3559,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,11 +3569,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3531,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3548,14 +3602,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3564,7 +3618,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3581,14 +3635,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3597,14 +3651,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3614,14 +3668,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3637,7 +3691,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3647,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3663,14 +3717,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3680,14 +3734,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3696,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3767,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3729,14 +3783,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3746,11 +3800,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3762,14 +3816,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,14 +3833,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>199</v>
+        <v>52</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3812,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3828,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3861,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3894,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3911,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3927,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,14 +3998,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3993,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,14 +4064,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4026,31 +4080,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4059,14 +4113,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4076,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4092,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,11 +4163,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4125,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4196,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,14 +4229,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4191,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,11 +4262,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>20</v>
@@ -4224,7 +4278,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4237,15 +4291,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4257,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4274,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,7 +4344,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4307,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4340,11 +4394,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4356,31 +4410,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4389,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4460,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>251</v>
+        <v>140</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4439,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4455,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4472,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4488,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4505,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4521,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4554,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,14 +4625,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4587,7 +4641,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4604,11 +4658,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>20</v>
@@ -4627,7 +4681,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4637,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4653,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4670,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4686,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4703,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>20</v>
+        <v>273</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4736,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4752,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4769,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4785,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4802,11 +4856,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4818,31 +4872,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4851,31 +4905,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4884,31 +4938,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4917,31 +4971,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4950,28 +5004,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -4983,7 +5037,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -4996,18 +5050,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>272</v>
+        <v>52</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>282</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5016,7 +5070,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5029,18 +5083,18 @@
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5049,28 +5103,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5082,31 +5136,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5115,28 +5169,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>40</v>
@@ -5148,28 +5202,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>159</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>40</v>
@@ -5181,20 +5235,20 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>29</v>
+        <v>273</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5202,10 +5256,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5214,28 +5268,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>158</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5254,24 +5308,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5280,66 +5334,363 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>223</v>
+        <v>29</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>6124.7150000000001</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>313</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
         <v>314</v>
       </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>29</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>82</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>300</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
         <v>315</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c t="s" r="Q120" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>316</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>297</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>82</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>317</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>319</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>320</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>82</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>321</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>322</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>323</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>82</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>324</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>325</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>297</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>82</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>321</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>326</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>29</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>82</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>321</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>327</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>328</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>82</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>163</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>329</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>40</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>82</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>230</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>330</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>229</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>82</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>306</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>6590.7150000000001</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>331</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>332</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>333</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5913,10 +6264,55 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -341,6 +341,18 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -665,9 +677,6 @@
     <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -791,9 +800,6 @@
     <t>TARGOMASH 80MG 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -1004,7 +1010,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:50 PM</t>
+    <t>Wednesday, 18 June, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2668,7 +2674,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2734,7 +2740,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2876,11 +2882,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2942,14 +2948,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2975,11 +2981,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,14 +3014,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3041,11 +3047,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3064,7 +3070,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3074,11 +3080,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3090,14 +3096,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,14 +3113,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3156,7 +3162,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3173,11 +3179,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3210,10 +3216,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,14 +3245,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3255,14 +3261,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,14 +3377,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,14 +3393,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,11 +3410,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3420,14 +3426,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3477,7 +3483,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3493,7 +3499,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,11 +3542,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3552,14 +3558,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,11 +3575,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3585,14 +3591,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3606,10 +3612,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,7 +3624,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3635,14 +3641,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3651,14 +3657,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3675,7 +3681,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3691,7 +3697,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3734,14 +3740,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,7 +3789,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3800,11 +3806,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,14 +3839,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3932,11 +3938,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3998,11 +4004,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4014,7 +4020,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>33</v>
+        <v>216</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,31 +4086,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,31 +4119,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4146,14 +4152,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,14 +4169,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,7 +4202,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4219,7 +4225,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4236,7 +4242,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4252,7 +4258,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4285,7 +4291,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4318,7 +4324,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4384,7 +4390,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4417,13 +4423,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4434,7 +4440,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4450,21 +4456,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4493,11 +4499,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>170</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4526,14 +4532,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4549,7 +4555,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4599,7 +4605,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4615,7 +4621,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4681,7 +4687,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4691,14 +4697,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4714,7 +4720,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,14 +4730,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4747,7 +4753,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4761,10 +4767,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,14 +4796,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4813,7 +4819,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4829,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>276</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>20</v>
@@ -4839,14 +4845,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,11 +4862,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,11 +4895,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4928,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,7 +4961,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4978,7 +4984,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4988,14 +4994,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,14 +5010,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5054,7 +5060,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>52</v>
+        <v>291</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5087,7 +5093,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5110,7 +5116,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>273</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5126,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5136,31 +5142,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5190,7 +5196,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>40</v>
@@ -5202,14 +5208,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,11 +5225,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>40</v>
@@ -5235,14 +5241,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,14 +5258,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,14 +5274,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,11 +5291,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5301,14 +5307,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5324,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>312</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5351,14 +5357,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>139</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,7 +5373,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5384,14 +5390,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>315</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5407,7 +5413,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,11 +5423,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5433,14 +5439,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,14 +5456,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5466,14 +5472,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5483,14 +5489,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5499,14 +5505,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5516,14 +5522,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5532,14 +5538,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5549,11 +5555,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>40</v>
@@ -5565,14 +5571,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5582,14 +5588,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5605,7 +5611,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5615,11 +5621,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5631,14 +5637,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5648,49 +5654,82 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>307</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>6590.7150000000001</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>331</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>332</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>232</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>82</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>308</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>6638.2349999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>333</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>334</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>335</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6309,10 +6348,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -665,6 +665,12 @@
     <t>135.6300</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -707,9 +713,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -881,6 +884,9 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -1010,7 +1016,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:51 PM</t>
+    <t>Wednesday, 18 June, 2025 10:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4103,14 +4109,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4126,24 +4132,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4152,31 +4158,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4192,7 +4198,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4202,14 +4208,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4225,7 +4231,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4235,11 +4241,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4251,14 +4257,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4268,14 +4274,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4284,14 +4290,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4301,14 +4307,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4317,14 +4323,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4334,14 +4340,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4350,14 +4356,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4367,14 +4373,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4383,14 +4389,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4400,11 +4406,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4433,11 +4439,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4449,31 +4455,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4482,28 +4488,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4515,14 +4521,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4532,11 +4538,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4555,7 +4561,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4565,14 +4571,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>254</v>
+        <v>65</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4581,14 +4587,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4598,11 +4604,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4614,7 +4620,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4631,14 +4637,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4647,14 +4653,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4664,14 +4670,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4680,14 +4686,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4697,14 +4703,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4713,14 +4719,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4730,14 +4736,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4746,14 +4752,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4763,14 +4769,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>148</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4779,14 +4785,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4796,14 +4802,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4812,14 +4818,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4829,14 +4835,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>85</v>
+        <v>273</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>86</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4845,14 +4851,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>143</v>
+        <v>276</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4862,11 +4868,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4878,14 +4884,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4895,11 +4901,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>89</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4918,7 +4924,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4928,11 +4934,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4951,7 +4957,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4961,14 +4967,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>282</v>
+        <v>59</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>283</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4977,14 +4983,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4994,11 +5000,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>183</v>
+        <v>283</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5010,14 +5016,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5027,14 +5033,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>288</v>
+        <v>183</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5043,14 +5049,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5060,14 +5066,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5076,14 +5082,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5093,11 +5099,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>20</v>
@@ -5109,14 +5115,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5126,11 +5132,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5142,14 +5148,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5159,7 +5165,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5175,31 +5181,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>77</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5208,31 +5214,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5241,14 +5247,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5258,11 +5264,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>40</v>
@@ -5274,14 +5280,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5291,14 +5297,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5307,14 +5313,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5324,14 +5330,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5340,14 +5346,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5357,14 +5363,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>200</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>314</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5373,14 +5379,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5390,14 +5396,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5406,7 +5412,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5423,14 +5429,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5439,14 +5445,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5456,14 +5462,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5472,14 +5478,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>322</v>
+        <v>29</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5489,14 +5495,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5505,14 +5511,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5522,11 +5528,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5538,14 +5544,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5555,7 +5561,7 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5571,14 +5577,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>29</v>
+        <v>327</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5588,14 +5594,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5611,7 +5617,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5621,14 +5627,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5637,14 +5643,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5654,14 +5660,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5670,14 +5676,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>232</v>
+        <v>332</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5687,49 +5693,115 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>6638.2349999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>333</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>40</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>82</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>234</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>334</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>219</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>82</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>310</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="P132" s="13">
+        <v>6703.2349999999997</v>
+      </c>
+      <c r="Q132" s="13"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="14">
         <v>335</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c t="s" r="G133" s="15">
+        <v>336</v>
+      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c t="s" r="K133" s="17">
+        <v>337</v>
+      </c>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="17"/>
+      <c r="P133" s="17"/>
+      <c r="Q133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="637">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6353,10 +6425,20 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="P132:Q132"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="K133:Q133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -855,6 +855,15 @@
   </si>
   <si>
     <t>VENTAL COMPOSITUM 200 DOSES SPRAY</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.0000</t>
   </si>
   <si>
     <t>VILDABETES 50/1000MG 30 TABS.</t>
@@ -4990,7 +4999,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5000,14 +5009,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>283</v>
+        <v>157</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5023,7 +5032,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5033,11 +5042,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5049,14 +5058,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5066,14 +5075,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>289</v>
+        <v>183</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>276</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5082,14 +5091,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5099,14 +5108,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5115,7 +5124,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5132,11 +5141,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>294</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5155,7 +5164,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5165,11 +5174,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5181,7 +5190,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5198,11 +5207,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5214,14 +5223,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5235,7 +5244,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5247,31 +5256,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5287,7 +5296,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5297,11 +5306,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>40</v>
@@ -5320,7 +5329,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5353,7 +5362,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5370,7 +5379,7 @@
         <v>311</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5419,7 +5428,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>29</v>
+        <v>276</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5429,14 +5438,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>316</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5445,7 +5454,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5462,14 +5471,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>143</v>
+        <v>319</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5478,7 +5487,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5495,14 +5504,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>20</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5511,14 +5520,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>301</v>
+        <v>29</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5528,7 +5537,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5551,7 +5560,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5561,14 +5570,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>168</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5598,10 +5607,10 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5617,7 +5626,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5627,14 +5636,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5643,14 +5652,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>29</v>
+        <v>304</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5660,7 +5669,7 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
@@ -5676,14 +5685,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>332</v>
+        <v>29</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5693,14 +5702,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5709,14 +5718,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5726,11 +5735,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5742,14 +5751,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5759,49 +5768,82 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
-      <c r="P132" s="13">
-        <v>6703.2349999999997</v>
-      </c>
-      <c r="Q132" s="13"/>
-    </row>
-    <row r="133" ht="16.5" customHeight="1">
-      <c t="s" r="A133" s="14">
-        <v>335</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c t="s" r="G133" s="15">
-        <v>336</v>
-      </c>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="16"/>
-      <c t="s" r="K133" s="17">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>337</v>
       </c>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-      <c r="O133" s="17"/>
-      <c r="P133" s="17"/>
-      <c r="Q133" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>219</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>82</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>313</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>6729.2349999999997</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>338</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>339</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>340</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="637">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6435,10 +6477,15 @@
     <mergeCell ref="H131:K131"/>
     <mergeCell ref="L131:M131"/>
     <mergeCell ref="N131:O131"/>
-    <mergeCell ref="P132:Q132"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="K133:Q133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -77,75 +77,78 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ALVEOLIN-P SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>AMARYL 1MG 30 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>ALVEOLIN-P SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>AMARYL 1MG 30 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>AMARYL M 2/500 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
     <t>93.00</t>
   </si>
   <si>
@@ -431,7 +434,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
@@ -440,9 +446,6 @@
     <t>DROPIFLOX OTIC DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>39.00</t>
   </si>
   <si>
@@ -1025,7 +1028,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:54 PM</t>
+    <t>Wednesday, 18 June, 2025 10:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1749,7 +1752,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1758,7 +1761,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1775,11 +1778,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>20</v>
@@ -1791,14 +1794,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1808,11 +1811,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1824,7 +1827,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1841,14 +1844,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1874,7 +1877,7 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1907,7 +1910,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1963,7 +1966,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1973,14 +1976,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1989,14 +1992,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2006,11 +2009,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>40</v>
@@ -2022,7 +2025,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2039,14 +2042,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2055,14 +2058,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2072,11 +2075,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2088,7 +2091,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2105,11 +2108,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2121,14 +2124,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2138,11 +2141,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2154,7 +2157,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2171,11 +2174,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2187,7 +2190,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2204,11 +2207,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2220,14 +2223,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2237,11 +2240,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2270,11 +2273,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -2286,7 +2289,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2336,14 +2339,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2352,7 +2355,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2365,15 +2368,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>40</v>
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2402,11 +2405,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2418,14 +2421,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2468,11 +2471,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2484,7 +2487,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2501,11 +2504,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2517,7 +2520,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2534,11 +2537,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2583,7 +2586,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2616,14 +2619,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2633,11 +2636,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2649,7 +2652,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2666,11 +2669,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2682,14 +2685,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2699,14 +2702,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2715,7 +2718,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2732,11 +2735,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2765,11 +2768,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>40</v>
@@ -2781,7 +2784,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2798,11 +2801,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2831,11 +2834,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2864,14 +2867,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2897,11 +2900,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2913,7 +2916,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2930,11 +2933,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2963,14 +2966,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2979,7 +2982,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2996,11 +2999,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3012,14 +3015,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3029,14 +3032,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3045,7 +3048,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3062,11 +3065,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3095,11 +3098,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3111,7 +3114,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3128,11 +3131,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3144,7 +3147,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3161,11 +3164,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>40</v>
@@ -3177,7 +3180,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3194,11 +3197,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3210,7 +3213,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3227,11 +3230,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3260,14 +3263,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3309,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3326,11 +3329,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3342,7 +3345,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3359,11 +3362,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>40</v>
@@ -3375,7 +3378,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3392,11 +3395,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3408,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3425,11 +3428,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3458,11 +3461,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3491,11 +3494,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3524,11 +3527,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3557,11 +3560,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3573,7 +3576,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3590,11 +3593,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3606,7 +3609,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3623,11 +3626,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3639,7 +3642,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3656,11 +3659,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3672,7 +3675,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3689,11 +3692,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3705,14 +3708,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3722,11 +3725,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>40</v>
@@ -3738,7 +3741,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3755,11 +3758,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3771,7 +3774,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3788,14 +3791,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3821,11 +3824,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3854,11 +3857,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3887,11 +3890,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3920,11 +3923,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3936,7 +3939,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3953,11 +3956,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3969,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3986,11 +3989,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4002,7 +4005,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4019,11 +4022,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4035,7 +4038,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4052,11 +4055,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4068,7 +4071,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4085,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4101,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4118,11 +4121,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4134,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4151,11 +4154,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>40</v>
@@ -4167,20 +4170,20 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4188,7 +4191,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4200,7 +4203,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4217,11 +4220,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4233,7 +4236,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4250,11 +4253,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4266,7 +4269,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4283,11 +4286,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4299,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4316,11 +4319,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>40</v>
@@ -4332,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4349,11 +4352,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>20</v>
@@ -4365,7 +4368,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>20</v>
@@ -4431,7 +4434,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4448,11 +4451,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4464,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4481,11 +4484,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>20</v>
@@ -4497,7 +4500,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4510,15 +4513,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4530,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4547,11 +4550,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4563,7 +4566,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4580,11 +4583,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4596,7 +4599,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4613,11 +4616,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>20</v>
@@ -4629,7 +4632,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4646,11 +4649,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>20</v>
@@ -4662,7 +4665,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4679,14 +4682,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4695,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4712,11 +4715,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4728,7 +4731,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4745,11 +4748,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>20</v>
@@ -4761,7 +4764,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4778,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4794,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4811,11 +4814,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>40</v>
@@ -4827,7 +4830,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4844,11 +4847,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4860,14 +4863,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4877,11 +4880,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>20</v>
@@ -4893,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4910,11 +4913,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4926,7 +4929,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4943,11 +4946,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4959,7 +4962,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4976,11 +4979,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4992,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5009,11 +5012,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5025,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5042,11 +5045,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5058,7 +5061,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5075,11 +5078,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5091,14 +5094,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5108,14 +5111,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5124,7 +5127,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5141,11 +5144,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>20</v>
@@ -5157,7 +5160,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5174,11 +5177,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5190,14 +5193,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5207,11 +5210,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5223,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5240,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5256,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5273,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5289,28 +5292,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>40</v>
@@ -5322,28 +5325,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>40</v>
@@ -5355,28 +5358,28 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>40</v>
@@ -5388,28 +5391,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5421,28 +5424,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5454,31 +5457,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5487,31 +5490,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5520,28 +5523,28 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>20</v>
@@ -5553,28 +5556,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5586,28 +5589,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>40</v>
@@ -5619,28 +5622,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>20</v>
@@ -5652,28 +5655,28 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>40</v>
@@ -5685,28 +5688,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>40</v>
@@ -5718,28 +5721,28 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>20</v>
@@ -5751,7 +5754,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5764,15 +5767,15 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5784,28 +5787,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5813,13 +5816,13 @@
     </row>
     <row r="133" ht="24.75" customHeight="1">
       <c r="P133" s="13">
-        <v>6729.2349999999997</v>
+        <v>6773.7849999999999</v>
       </c>
       <c r="Q133" s="13"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
       <c t="s" r="A134" s="14">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -5827,13 +5830,13 @@
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c t="s" r="G134" s="15">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
       <c r="J134" s="16"/>
       <c t="s" r="K134" s="17">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L134" s="17"/>
       <c r="M134" s="17"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRIMOSALM EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
   </si>
   <si>
     <t>BRUFEN 400MG 30 TAB</t>
@@ -2230,7 +2239,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2280,7 +2289,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2296,7 +2305,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2306,11 +2315,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2362,24 +2371,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2388,31 +2397,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2494,7 +2503,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2511,7 +2520,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2544,7 +2553,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2560,7 +2569,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2570,14 +2579,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2586,14 +2595,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2603,7 +2612,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2626,7 +2635,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2643,7 +2652,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2676,7 +2685,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2692,7 +2701,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2808,7 +2817,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2824,7 +2833,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2841,7 +2850,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2857,7 +2866,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2890,7 +2899,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2933,7 +2942,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2956,7 +2965,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2989,7 +2998,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3003,10 +3012,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3055,7 +3064,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3098,11 +3107,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>20</v>
@@ -3121,7 +3130,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3131,11 +3140,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3187,7 +3196,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3201,10 +3210,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3213,7 +3222,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3230,11 +3239,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3253,7 +3262,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3352,7 +3361,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3369,7 +3378,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3402,7 +3411,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3418,7 +3427,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3435,7 +3444,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3451,7 +3460,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,7 +3470,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3484,7 +3493,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3517,7 +3526,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3543,14 +3552,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3564,10 +3573,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3593,11 +3602,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3626,11 +3635,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3659,14 +3668,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3699,7 +3708,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3715,7 +3724,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3765,7 +3774,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3781,7 +3790,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,14 +3800,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3840,7 +3849,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3923,11 +3932,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3946,7 +3955,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>210</v>
+        <v>89</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -4012,7 +4021,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4029,7 +4038,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4045,7 +4054,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,11 +4064,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4071,7 +4080,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>53</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4111,7 +4120,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4121,14 +4130,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>86</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,31 +4179,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4203,31 +4212,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,7 +4295,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4309,7 +4318,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4326,7 +4335,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4342,7 +4351,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4356,10 +4365,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4408,7 +4417,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4474,7 +4483,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4507,13 +4516,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4524,7 +4533,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4540,21 +4549,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,11 +4592,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4625,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4639,7 +4648,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4689,7 +4698,7 @@
         <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4705,7 +4714,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4722,7 +4731,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4738,7 +4747,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4748,14 +4757,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,14 +4790,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>152</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4830,14 +4839,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4870,7 +4879,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4896,14 +4905,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4913,11 +4922,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>279</v>
+        <v>89</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>20</v>
@@ -4936,7 +4945,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4946,11 +4955,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,11 +4988,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,11 +5021,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>285</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5035,7 +5044,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,14 +5054,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>287</v>
+        <v>161</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5068,7 +5077,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5078,11 +5087,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>184</v>
+        <v>290</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5094,14 +5103,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,14 +5120,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5127,14 +5136,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5144,14 +5153,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,7 +5169,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5177,11 +5186,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>297</v>
+        <v>232</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>20</v>
@@ -5200,7 +5209,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5210,11 +5219,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>53</v>
+        <v>300</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5226,7 +5235,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5243,11 +5252,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5259,14 +5268,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>277</v>
+        <v>30</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5276,11 +5285,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5292,31 +5301,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5332,21 +5341,21 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>40</v>
@@ -5365,13 +5374,13 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5398,13 +5407,13 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5415,7 +5424,7 @@
         <v>315</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5431,13 +5440,13 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5464,24 +5473,24 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5490,7 +5499,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5503,18 +5512,18 @@
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>141</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5523,7 +5532,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5536,18 +5545,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5556,24 +5565,24 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
@@ -5596,24 +5605,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5635,7 +5644,7 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
@@ -5643,10 +5652,10 @@
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5662,24 +5671,24 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>169</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5688,28 +5697,28 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>30</v>
+        <v>308</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>40</v>
@@ -5721,31 +5730,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>336</v>
+        <v>30</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>168</v>
+        <v>332</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5754,28 +5763,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>40</v>
+        <v>339</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5787,66 +5796,99 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>6773.7849999999999</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>339</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>340</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>341</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>223</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>86</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>317</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>6814.7849999999999</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>342</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>343</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>344</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6485,10 +6527,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -1037,7 +1037,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:55 PM</t>
+    <t>Wednesday, 18 June, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -1025,6 +1025,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>كريم فريند لافلي الكبير</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>ماسك وجه</t>
   </si>
   <si>
@@ -1037,7 +1046,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:56 PM</t>
+    <t>Wednesday, 18 June, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5780,11 +5789,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>172</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>20</v>
@@ -5796,14 +5805,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5813,11 +5822,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>20</v>
@@ -5829,14 +5838,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5846,49 +5855,82 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>344</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>223</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>86</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>317</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
         <v>318</v>
       </c>
-      <c t="s" r="Q133" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>6814.7849999999999</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>342</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>343</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>344</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c t="s" r="Q134" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>6849.7849999999999</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>345</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>346</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>347</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6532,10 +6574,15 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -1046,7 +1046,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:57 PM</t>
+    <t>Wednesday, 18 June, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-18_00-00.xlsx
+++ b/DaySale_2025-06-18_00-00.xlsx
@@ -767,6 +767,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>SILDOCARE 8MG 30CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>SODIUM BICARB 1000MG 30 CAPS</t>
   </si>
   <si>
@@ -1046,7 +1055,7 @@
     <t>معجون اسنان سيجنال 120 مل عرض</t>
   </si>
   <si>
-    <t>Wednesday, 18 June, 2025 10:58 PM</t>
+    <t>Wednesday, 18 June, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4558,13 +4567,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4575,7 +4584,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4591,21 +4600,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4634,11 +4643,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4667,14 +4676,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4690,7 +4699,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4740,7 +4749,7 @@
         <v>266</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4756,7 +4765,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4773,7 +4782,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4789,7 +4798,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4865,14 +4874,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4881,14 +4890,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,14 +4907,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4921,7 +4930,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4931,14 +4940,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4947,14 +4956,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,11 +4973,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>282</v>
+        <v>89</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>20</v>
@@ -4987,7 +4996,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4997,11 +5006,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>92</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>20</v>
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5030,11 +5039,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>20</v>
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>287</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5063,11 +5072,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>20</v>
@@ -5086,7 +5095,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5096,14 +5105,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>291</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5119,7 +5128,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,11 +5138,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>187</v>
+        <v>293</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5145,14 +5154,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5162,14 +5171,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>280</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5178,14 +5187,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5195,14 +5204,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>20</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5211,7 +5220,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5228,11 +5237,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>20</v>
@@ -5251,7 +5260,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,11 +5270,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>20</v>
@@ -5277,7 +5286,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5294,11 +5303,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5310,14 +5319,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5331,7 +5340,7 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5343,31 +5352,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5383,7 +5392,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,11 +5402,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>312</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>40</v>
@@ -5416,7 +5425,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5449,7 +5458,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5466,7 +5475,7 @@
         <v>318</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5482,7 +5491,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5515,7 +5524,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,14 +5534,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>204</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5541,7 +5550,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5558,14 +5567,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>144</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5574,7 +5583,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5591,14 +5600,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>326</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5607,14 +5616,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,7 +5633,7 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
@@ -5647,7 +5656,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5657,14 +5666,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,10 +5703,10 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5713,7 +5722,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5723,14 +5732,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5739,14 +5748,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5756,7 +5765,7 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
@@ -5772,14 +5781,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="